--- a/cronograma-de-projeto-gantt-PP-v01.xlsx
+++ b/cronograma-de-projeto-gantt-PP-v01.xlsx
@@ -1,18 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077CDB26-1547-440D-8E99-0AB3F0FA2FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="9660"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cronograma" sheetId="1" r:id="rId1"/>
     <sheet name="Modelo" sheetId="2" r:id="rId2"/>
     <sheet name="Auxiliar" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miWvIeLSKwrPELECLpf191iJUTODw=="/>
     </ext>
@@ -21,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>D</t>
   </si>
@@ -175,11 +190,23 @@
   <si>
     <t>Teste</t>
   </si>
+  <si>
+    <t>Data inicial</t>
+  </si>
+  <si>
+    <t>Prazo em dias úteis</t>
+  </si>
+  <si>
+    <t>porcentagem concluída</t>
+  </si>
+  <si>
+    <t>Datas fixas - perguntar ao professor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
@@ -256,7 +283,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +294,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor rgb="FF002060"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -298,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -366,18 +417,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,6 +930,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1070,14 +1134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OV34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:OV44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7258,7 +7322,7 @@
       <c r="A7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="29">
         <f>MIN(B8:B10)</f>
         <v>43699</v>
       </c>
@@ -7270,7 +7334,7 @@
         <f t="shared" ref="D7:D29" si="2">E7-B7+1</f>
         <v>28</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <f>MAX(E8:E10)</f>
         <v>43726</v>
       </c>
@@ -7687,10 +7751,10 @@
       <c r="A8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <v>43699</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="32">
         <v>10</v>
       </c>
       <c r="D8" s="21">
@@ -7702,11 +7766,11 @@
         <v>43712</v>
       </c>
       <c r="F8" s="21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="21" t="str">
         <f ca="1">IF(TODAY()&lt;B8,"Futura",IF(F8=100,"Concluída",IF((TODAY()-B8)/(E8-B8)&lt;F8/100,"Em andamento","Atenção")))</f>
-        <v>Concluída</v>
+        <v>Atenção</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -8122,7 +8186,7 @@
         <f>E8+1</f>
         <v>43713</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="32">
         <v>5</v>
       </c>
       <c r="D9" s="21">
@@ -8134,11 +8198,11 @@
         <v>43719</v>
       </c>
       <c r="F9" s="21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="21" t="str">
         <f t="shared" ref="G9:G10" ca="1" si="3">IF(TODAY()&lt;B9,"Futura",IF(F9=100,"Concluída",IF((TODAY()-B9)/(E9-B9)&lt;F9/100,"Em andamento","Atenção")))</f>
-        <v>Concluída</v>
+        <v>Atenção</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -8554,7 +8618,7 @@
         <f>E9+1</f>
         <v>43720</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="32">
         <v>5</v>
       </c>
       <c r="D10" s="21">
@@ -8566,11 +8630,11 @@
         <v>43726</v>
       </c>
       <c r="F10" s="21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Concluída</v>
+        <v>Atenção</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -8982,21 +9046,21 @@
       <c r="A11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="29">
         <f>MIN(B12:B18)</f>
         <v>43727</v>
       </c>
       <c r="C11" s="28">
         <f>NETWORKDAYS(B11,E11)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" s="28">
         <f>E11-B11+1</f>
-        <v>19</v>
-      </c>
-      <c r="E11" s="31">
+        <v>22</v>
+      </c>
+      <c r="E11" s="29">
         <f>MAX(E12:E18)</f>
-        <v>43745</v>
+        <v>43748</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>15</v>
@@ -9415,7 +9479,7 @@
         <f>E10+1</f>
         <v>43727</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="33">
         <v>4</v>
       </c>
       <c r="D12" s="21">
@@ -9426,12 +9490,12 @@
         <f t="shared" ref="E12:E18" si="4">WORKDAY(B12-1,C12)</f>
         <v>43732</v>
       </c>
-      <c r="F12" s="21">
-        <v>20</v>
+      <c r="F12" s="35">
+        <v>0</v>
       </c>
       <c r="G12" s="21" t="str">
         <f ca="1">IF(TODAY()&lt;B12,"Futura",IF(F12=100,"Concluída",IF((TODAY()-B12)/(E12-B12)&lt;F12/100,"Em andamento","Atenção")))</f>
-        <v>Em andamento</v>
+        <v>Atenção</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -9847,23 +9911,23 @@
         <f>E12+1</f>
         <v>43733</v>
       </c>
-      <c r="C13" s="21">
-        <v>1</v>
+      <c r="C13" s="33">
+        <v>2</v>
       </c>
       <c r="D13" s="21">
         <f t="shared" ref="D13:D18" si="5">E13-B13+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="4"/>
-        <v>43733</v>
-      </c>
-      <c r="F13" s="21">
+        <v>43734</v>
+      </c>
+      <c r="F13" s="35">
         <v>0</v>
       </c>
       <c r="G13" s="21" t="str">
         <f t="shared" ref="G13:G18" ca="1" si="6">IF(TODAY()&lt;B13,"Futura",IF(F13=100,"Concluída",IF((TODAY()-B13)/(E13-B13)&lt;F13/100,"Em andamento","Atenção")))</f>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -10277,25 +10341,25 @@
       </c>
       <c r="B14" s="19">
         <f t="shared" ref="B14:B18" si="7">E13+1</f>
-        <v>43734</v>
-      </c>
-      <c r="C14" s="21">
+        <v>43735</v>
+      </c>
+      <c r="C14" s="33">
         <v>2</v>
       </c>
       <c r="D14" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="4"/>
-        <v>43735</v>
-      </c>
-      <c r="F14" s="21">
+        <v>43738</v>
+      </c>
+      <c r="F14" s="35">
         <v>0</v>
       </c>
       <c r="G14" s="21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -10709,25 +10773,25 @@
       </c>
       <c r="B15" s="19">
         <f t="shared" si="7"/>
-        <v>43736</v>
-      </c>
-      <c r="C15" s="21">
-        <v>1</v>
+        <v>43739</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2</v>
       </c>
       <c r="D15" s="21">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="4"/>
-        <v>43738</v>
-      </c>
-      <c r="F15" s="21">
+        <v>43740</v>
+      </c>
+      <c r="F15" s="35">
         <v>0</v>
       </c>
       <c r="G15" s="21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -11141,25 +11205,25 @@
       </c>
       <c r="B16" s="19">
         <f t="shared" si="7"/>
-        <v>43739</v>
-      </c>
-      <c r="C16" s="21">
-        <v>1</v>
+        <v>43741</v>
+      </c>
+      <c r="C16" s="33">
+        <v>2</v>
       </c>
       <c r="D16" s="21">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="4"/>
-        <v>43739</v>
-      </c>
-      <c r="F16" s="21">
+        <v>43742</v>
+      </c>
+      <c r="F16" s="35">
         <v>0</v>
       </c>
       <c r="G16" s="21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -11573,25 +11637,25 @@
       </c>
       <c r="B17" s="19">
         <f t="shared" si="7"/>
-        <v>43740</v>
-      </c>
-      <c r="C17" s="21">
+        <v>43743</v>
+      </c>
+      <c r="C17" s="33">
         <v>2</v>
       </c>
       <c r="D17" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="4"/>
-        <v>43741</v>
-      </c>
-      <c r="F17" s="21">
+        <v>43746</v>
+      </c>
+      <c r="F17" s="35">
         <v>0</v>
       </c>
       <c r="G17" s="21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -12005,25 +12069,25 @@
       </c>
       <c r="B18" s="19">
         <f t="shared" si="7"/>
-        <v>43742</v>
-      </c>
-      <c r="C18" s="21">
+        <v>43747</v>
+      </c>
+      <c r="C18" s="33">
         <v>2</v>
       </c>
       <c r="D18" s="21">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="4"/>
-        <v>43745</v>
-      </c>
-      <c r="F18" s="21">
+        <v>43748</v>
+      </c>
+      <c r="F18" s="35">
         <v>0</v>
       </c>
       <c r="G18" s="21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -12435,21 +12499,21 @@
       <c r="A19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="29">
         <f>MIN(B20:B28)</f>
-        <v>43746</v>
+        <v>43749</v>
       </c>
       <c r="C19" s="28">
         <f>NETWORKDAYS(B19,E19)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="28">
         <f>E19-B19+1</f>
-        <v>31</v>
-      </c>
-      <c r="E19" s="31">
+        <v>35</v>
+      </c>
+      <c r="E19" s="29">
         <f>MAX(E20:E28)</f>
-        <v>43776</v>
+        <v>43783</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>15</v>
@@ -12866,25 +12930,25 @@
       </c>
       <c r="B20" s="19">
         <f>E18+1</f>
-        <v>43746</v>
-      </c>
-      <c r="C20" s="21">
+        <v>43749</v>
+      </c>
+      <c r="C20" s="33">
         <v>2</v>
       </c>
       <c r="D20" s="21">
         <f>E20-B20+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="19">
         <f>WORKDAY(B20-1,C20)</f>
-        <v>43747</v>
-      </c>
-      <c r="F20" s="21">
+        <v>43752</v>
+      </c>
+      <c r="F20" s="35">
         <v>0</v>
       </c>
       <c r="G20" s="21" t="str">
         <f ca="1">IF(TODAY()&lt;B20,"Futura",IF(F20=100,"Concluída",IF((TODAY()-B20)/(E20-B20)&lt;F20/100,"Em andamento","Atenção")))</f>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -13298,9 +13362,9 @@
       </c>
       <c r="B21" s="19">
         <f>E20+1</f>
-        <v>43748</v>
-      </c>
-      <c r="C21" s="21">
+        <v>43753</v>
+      </c>
+      <c r="C21" s="33">
         <v>2</v>
       </c>
       <c r="D21" s="21">
@@ -13309,14 +13373,14 @@
       </c>
       <c r="E21" s="19">
         <f t="shared" ref="E21:E25" si="9">WORKDAY(B21-1,C21)</f>
-        <v>43749</v>
-      </c>
-      <c r="F21" s="21">
+        <v>43754</v>
+      </c>
+      <c r="F21" s="35">
         <v>0</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" ref="G21:G25" ca="1" si="10">IF(TODAY()&lt;B21,"Futura",IF(F21=100,"Concluída",IF((TODAY()-B21)/(E21-B21)&lt;F21/100,"Em andamento","Atenção")))</f>
-        <v>Futura</v>
+        <f t="shared" ref="G21:G27" ca="1" si="10">IF(TODAY()&lt;B21,"Futura",IF(F21=100,"Concluída",IF((TODAY()-B21)/(E21-B21)&lt;F21/100,"Em andamento","Atenção")))</f>
+        <v>Atenção</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -13730,9 +13794,9 @@
       </c>
       <c r="B22" s="19">
         <f t="shared" ref="B22:B25" si="11">E21+1</f>
-        <v>43750</v>
-      </c>
-      <c r="C22" s="21">
+        <v>43755</v>
+      </c>
+      <c r="C22" s="33">
         <v>4</v>
       </c>
       <c r="D22" s="21">
@@ -13741,14 +13805,14 @@
       </c>
       <c r="E22" s="19">
         <f t="shared" si="9"/>
-        <v>43755</v>
-      </c>
-      <c r="F22" s="21">
+        <v>43760</v>
+      </c>
+      <c r="F22" s="35">
         <v>0</v>
       </c>
       <c r="G22" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -14162,25 +14226,25 @@
       </c>
       <c r="B23" s="19">
         <f t="shared" si="11"/>
-        <v>43756</v>
-      </c>
-      <c r="C23" s="21">
+        <v>43761</v>
+      </c>
+      <c r="C23" s="33">
         <v>2</v>
       </c>
       <c r="D23" s="21">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="9"/>
-        <v>43759</v>
-      </c>
-      <c r="F23" s="21">
+        <v>43762</v>
+      </c>
+      <c r="F23" s="35">
         <v>0</v>
       </c>
       <c r="G23" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -14594,25 +14658,25 @@
       </c>
       <c r="B24" s="19">
         <f t="shared" si="11"/>
-        <v>43760</v>
-      </c>
-      <c r="C24" s="21">
+        <v>43763</v>
+      </c>
+      <c r="C24" s="33">
         <v>2</v>
       </c>
       <c r="D24" s="21">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="9"/>
-        <v>43761</v>
-      </c>
-      <c r="F24" s="21">
+        <v>43766</v>
+      </c>
+      <c r="F24" s="35">
         <v>0</v>
       </c>
       <c r="G24" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -15026,25 +15090,25 @@
       </c>
       <c r="B25" s="19">
         <f t="shared" si="11"/>
-        <v>43762</v>
-      </c>
-      <c r="C25" s="21">
+        <v>43767</v>
+      </c>
+      <c r="C25" s="33">
         <v>4</v>
       </c>
       <c r="D25" s="21">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="9"/>
-        <v>43767</v>
-      </c>
-      <c r="F25" s="21">
+        <v>43770</v>
+      </c>
+      <c r="F25" s="35">
         <v>0</v>
       </c>
       <c r="G25" s="21" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Futura</v>
+        <f ca="1">IF(TODAY()&lt;B25,"Futura",IF(F25=100,"Concluída",IF((TODAY()-B25)/(E25-B25)&lt;F25/100,"Em andamento","Atenção")))</f>
+        <v>Atenção</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -15458,9 +15522,9 @@
       </c>
       <c r="B26" s="19">
         <f t="shared" ref="B26:B28" si="12">E25+1</f>
-        <v>43768</v>
-      </c>
-      <c r="C26" s="21">
+        <v>43771</v>
+      </c>
+      <c r="C26" s="33">
         <v>5</v>
       </c>
       <c r="D26" s="21">
@@ -15469,14 +15533,14 @@
       </c>
       <c r="E26" s="19">
         <f t="shared" ref="E26:E28" si="14">WORKDAY(B26-1,C26)</f>
-        <v>43774</v>
-      </c>
-      <c r="F26" s="21">
-        <v>1</v>
+        <v>43777</v>
+      </c>
+      <c r="F26" s="35">
+        <v>0</v>
       </c>
       <c r="G26" s="21" t="str">
-        <f t="shared" ref="G26:G28" ca="1" si="15">IF(TODAY()&lt;B26,"Futura",IF(F26=100,"Concluída",IF((TODAY()-B26)/(E26-B26)&lt;F26/100,"Em andamento","Atenção")))</f>
-        <v>Futura</v>
+        <f ca="1">IF(TODAY()&lt;B26,"Futura",IF(F26=100,"Concluída",IF((TODAY()-B26)/(E26-B26)&lt;F26/100,"Em andamento","Atenção")))</f>
+        <v>Atenção</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -15890,25 +15954,25 @@
       </c>
       <c r="B27" s="19">
         <f t="shared" si="12"/>
-        <v>43775</v>
-      </c>
-      <c r="C27" s="21">
-        <v>1</v>
+        <v>43778</v>
+      </c>
+      <c r="C27" s="33">
+        <v>2</v>
       </c>
       <c r="D27" s="21">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="14"/>
-        <v>43775</v>
-      </c>
-      <c r="F27" s="21">
-        <v>2</v>
+        <v>43781</v>
+      </c>
+      <c r="F27" s="35">
+        <v>0</v>
       </c>
       <c r="G27" s="21" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Futura</v>
+        <f ca="1">IF(TODAY()&lt;B27,"Futura",IF(F27=100,"Concluída",IF((TODAY()-B27)/(E27-B27)&lt;F27/100,"Em andamento","Atenção")))</f>
+        <v>Atenção</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -16322,25 +16386,25 @@
       </c>
       <c r="B28" s="19">
         <f t="shared" si="12"/>
-        <v>43776</v>
-      </c>
-      <c r="C28" s="21">
-        <v>1</v>
+        <v>43782</v>
+      </c>
+      <c r="C28" s="33">
+        <v>2</v>
       </c>
       <c r="D28" s="21">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="14"/>
-        <v>43776</v>
-      </c>
-      <c r="F28" s="21">
-        <v>3</v>
+        <v>43783</v>
+      </c>
+      <c r="F28" s="35">
+        <v>0</v>
       </c>
       <c r="G28" s="21" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Futura</v>
+        <f t="shared" ref="G26:G28" ca="1" si="15">IF(TODAY()&lt;B28,"Futura",IF(F28=100,"Concluída",IF((TODAY()-B28)/(E28-B28)&lt;F28/100,"Em andamento","Atenção")))</f>
+        <v>Atenção</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -16752,7 +16816,7 @@
       <c r="A29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="29">
         <f>MIN(B30:B32)</f>
         <v>43777</v>
       </c>
@@ -16764,7 +16828,7 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="29">
         <f>MAX(E30:E32)</f>
         <v>43797</v>
       </c>
@@ -17183,24 +17247,24 @@
       </c>
       <c r="B30" s="19">
         <f>E28+1</f>
-        <v>43777</v>
-      </c>
-      <c r="C30" s="21">
+        <v>43784</v>
+      </c>
+      <c r="C30" s="33">
         <v>3</v>
       </c>
       <c r="D30" s="21">
         <f>E30-B30+1</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="30">
+        <v>-7</v>
+      </c>
+      <c r="E30" s="37">
         <v>43776</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="35">
         <v>0</v>
       </c>
       <c r="G30" s="21" t="str">
         <f t="shared" ref="G30:G32" ca="1" si="16">IF(TODAY()&lt;B30,"Futura",IF(F30=100,"Concluída",IF((TODAY()-B30)/(E30-B30)&lt;F30/100,"Em andamento","Atenção")))</f>
-        <v>Futura</v>
+        <v>Em andamento</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -17616,22 +17680,22 @@
         <f>E30+1</f>
         <v>43777</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="33">
         <v>10</v>
       </c>
       <c r="D31" s="21">
         <f t="shared" ref="D31:D32" si="17">E31-B31+1</f>
         <v>14</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="37">
         <v>43790</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="35">
         <v>0</v>
       </c>
       <c r="G31" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -18047,22 +18111,22 @@
         <f t="shared" ref="B32" si="18">E31+1</f>
         <v>43791</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="33">
         <v>5</v>
       </c>
       <c r="D32" s="21">
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="37">
         <v>43797</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="35">
         <v>0</v>
       </c>
       <c r="G32" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Futura</v>
+        <v>Atenção</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -18474,7 +18538,7 @@
       <c r="A33" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="29">
         <f>MIN(B34:B34)</f>
         <v>43699</v>
       </c>
@@ -18486,7 +18550,7 @@
         <f>E33-B33+1</f>
         <v>99</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="29">
         <f>MAX(E34:E34)</f>
         <v>43797</v>
       </c>
@@ -18906,7 +18970,7 @@
         <f>MIN(B7:B32)</f>
         <v>43699</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="33">
         <f>C33</f>
         <v>71</v>
       </c>
@@ -18918,12 +18982,12 @@
         <f>MAX(E6:E32)</f>
         <v>43797</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="35">
         <v>30</v>
       </c>
       <c r="G34" s="21" t="str">
         <f t="shared" ref="G34" ca="1" si="19">IF(TODAY()&lt;B34,"Futura",IF(F34=100,"Concluída",IF((TODAY()-B34)/(E34-B34)&lt;F34/100,"Em andamento","Atenção")))</f>
-        <v>Em andamento</v>
+        <v>Atenção</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -19330,6 +19394,30 @@
       <c r="OU34" s="21"/>
       <c r="OV34" s="21"/>
     </row>
+    <row r="41" spans="1:412" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31"/>
+      <c r="B41" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:412" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="34"/>
+      <c r="B42" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:412" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="36"/>
+      <c r="B43" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:412" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="38"/>
+      <c r="B44" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H4:OV4">
     <cfRule type="expression" dxfId="51" priority="2">
@@ -19457,7 +19545,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F8:F34">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F8:F34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -19468,7 +19556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:OV1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29785,7 +29873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/cronograma-de-projeto-gantt-PP-v01.xlsx
+++ b/cronograma-de-projeto-gantt-PP-v01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077CDB26-1547-440D-8E99-0AB3F0FA2FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21477974-0C94-4291-8A66-ECED38F51A7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miWvIeLSKwrPELECLpf191iJUTODw=="/>
     </ext>
@@ -1141,7 +1132,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1192,7 +1183,7 @@
       </c>
       <c r="D1" s="19">
         <f>MIN(B7:B32)</f>
-        <v>43699</v>
+        <v>44958</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
@@ -1610,7 +1601,7 @@
       </c>
       <c r="D2" s="19">
         <f>MAX(E6:E32)</f>
-        <v>43797</v>
+        <v>45085</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2023,1623 +2014,1623 @@
       <c r="B3" s="19"/>
       <c r="H3" s="21">
         <f t="shared" ref="H3:OV3" si="0">WEEKDAY(H4)</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I3" s="21">
+      <c r="J3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J3" s="21">
+      <c r="K3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K3" s="21">
+      <c r="L3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L3" s="21">
+      <c r="M3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M3" s="21">
+      <c r="N3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N3" s="21">
+      <c r="O3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O3" s="21">
+      <c r="P3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P3" s="21">
+      <c r="Q3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="R3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R3" s="21">
+      <c r="S3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S3" s="21">
+      <c r="T3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T3" s="21">
+      <c r="U3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U3" s="21">
+      <c r="V3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="V3" s="21">
+      <c r="W3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W3" s="21">
+      <c r="X3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="X3" s="21">
+      <c r="Y3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Y3" s="21">
+      <c r="Z3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="AA3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AB3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB3" s="21">
+      <c r="AC3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AD3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AD3" s="21">
+      <c r="AE3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AE3" s="21">
+      <c r="AF3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AF3" s="21">
+      <c r="AG3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AH3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AH3" s="21">
+      <c r="AI3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AI3" s="21">
+      <c r="AJ3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AJ3" s="21">
+      <c r="AK3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AK3" s="21">
+      <c r="AL3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AL3" s="21">
+      <c r="AM3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AM3" s="21">
+      <c r="AN3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AN3" s="21">
+      <c r="AO3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AO3" s="21">
+      <c r="AP3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AP3" s="21">
+      <c r="AQ3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AQ3" s="21">
+      <c r="AR3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AR3" s="21">
+      <c r="AS3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AS3" s="21">
+      <c r="AT3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AT3" s="21">
+      <c r="AU3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AU3" s="21">
+      <c r="AV3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AV3" s="21">
+      <c r="AW3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AW3" s="21">
+      <c r="AX3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AX3" s="21">
+      <c r="AY3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AY3" s="21">
+      <c r="AZ3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AZ3" s="21">
+      <c r="BA3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="BA3" s="21">
+      <c r="BB3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="BB3" s="21">
+      <c r="BC3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BC3" s="21">
+      <c r="BD3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BD3" s="21">
+      <c r="BE3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BE3" s="21">
+      <c r="BF3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BF3" s="21">
+      <c r="BG3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BG3" s="21">
+      <c r="BH3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="BH3" s="21">
+      <c r="BI3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="BI3" s="21">
+      <c r="BJ3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BJ3" s="21">
+      <c r="BK3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BK3" s="21">
+      <c r="BL3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BL3" s="21">
+      <c r="BM3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BM3" s="21">
+      <c r="BN3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BN3" s="21">
+      <c r="BO3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="BO3" s="21">
+      <c r="BP3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="BP3" s="21">
+      <c r="BQ3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BQ3" s="21">
+      <c r="BR3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BR3" s="21">
+      <c r="BS3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BS3" s="21">
+      <c r="BT3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BT3" s="21">
+      <c r="BU3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BU3" s="21">
+      <c r="BV3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="BV3" s="21">
+      <c r="BW3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="BW3" s="21">
+      <c r="BX3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BX3" s="21">
+      <c r="BY3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BY3" s="21">
+      <c r="BZ3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BZ3" s="21">
+      <c r="CA3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="CA3" s="21">
+      <c r="CB3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="CB3" s="21">
+      <c r="CC3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="CC3" s="21">
+      <c r="CD3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="CD3" s="21">
+      <c r="CE3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="CE3" s="21">
+      <c r="CF3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="CF3" s="21">
+      <c r="CG3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="CG3" s="21">
+      <c r="CH3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="CH3" s="21">
+      <c r="CI3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="CI3" s="21">
+      <c r="CJ3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="CJ3" s="21">
+      <c r="CK3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="CK3" s="21">
+      <c r="CL3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="CL3" s="21">
+      <c r="CM3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="CM3" s="21">
+      <c r="CN3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="CN3" s="21">
+      <c r="CO3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="CO3" s="21">
+      <c r="CP3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="CP3" s="21">
+      <c r="CQ3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="CQ3" s="21">
+      <c r="CR3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="CR3" s="21">
+      <c r="CS3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="CS3" s="21">
+      <c r="CT3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="CT3" s="21">
+      <c r="CU3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="CU3" s="21">
+      <c r="CV3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="CV3" s="21">
+      <c r="CW3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="CW3" s="21">
+      <c r="CX3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="CX3" s="21">
+      <c r="CY3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="CY3" s="21">
+      <c r="CZ3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="CZ3" s="21">
+      <c r="DA3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="DA3" s="21">
+      <c r="DB3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="DB3" s="21">
+      <c r="DC3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="DC3" s="21">
+      <c r="DD3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="DD3" s="21">
+      <c r="DE3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="DE3" s="21">
+      <c r="DF3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="DF3" s="21">
+      <c r="DG3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DG3" s="21">
+      <c r="DH3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="DH3" s="21">
+      <c r="DI3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="DI3" s="21">
+      <c r="DJ3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="DJ3" s="21">
+      <c r="DK3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="DK3" s="21">
+      <c r="DL3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="DL3" s="21">
+      <c r="DM3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="DM3" s="21">
+      <c r="DN3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DN3" s="21">
+      <c r="DO3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="DO3" s="21">
+      <c r="DP3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="DP3" s="21">
+      <c r="DQ3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="DQ3" s="21">
+      <c r="DR3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="DR3" s="21">
+      <c r="DS3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="DS3" s="21">
+      <c r="DT3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="DT3" s="21">
+      <c r="DU3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="DU3" s="21">
+      <c r="DV3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="DV3" s="21">
+      <c r="DW3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="DW3" s="21">
+      <c r="DX3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="DX3" s="21">
+      <c r="DY3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="DY3" s="21">
+      <c r="DZ3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="DZ3" s="21">
+      <c r="EA3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="EA3" s="21">
+      <c r="EB3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EB3" s="21">
+      <c r="EC3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="EC3" s="21">
+      <c r="ED3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="ED3" s="21">
+      <c r="EE3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="EE3" s="21">
+      <c r="EF3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="EF3" s="21">
+      <c r="EG3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="EG3" s="21">
+      <c r="EH3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="EH3" s="21">
+      <c r="EI3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EI3" s="21">
+      <c r="EJ3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="EJ3" s="21">
+      <c r="EK3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="EK3" s="21">
+      <c r="EL3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="EL3" s="21">
+      <c r="EM3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="EM3" s="21">
+      <c r="EN3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="EN3" s="21">
+      <c r="EO3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="EO3" s="21">
+      <c r="EP3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EP3" s="21">
+      <c r="EQ3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="EQ3" s="21">
+      <c r="ER3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="ER3" s="21">
+      <c r="ES3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="ES3" s="21">
+      <c r="ET3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="ET3" s="21">
+      <c r="EU3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="EU3" s="21">
+      <c r="EV3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="EV3" s="21">
+      <c r="EW3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="EW3" s="21">
+      <c r="EX3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="EX3" s="21">
+      <c r="EY3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="EY3" s="21">
+      <c r="EZ3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="EZ3" s="21">
+      <c r="FA3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="FA3" s="21">
+      <c r="FB3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="FB3" s="21">
+      <c r="FC3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="FC3" s="21">
+      <c r="FD3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="FD3" s="21">
+      <c r="FE3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="FE3" s="21">
+      <c r="FF3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="FF3" s="21">
+      <c r="FG3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="FG3" s="21">
+      <c r="FH3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="FH3" s="21">
+      <c r="FI3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="FI3" s="21">
+      <c r="FJ3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="FJ3" s="21">
+      <c r="FK3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="FK3" s="21">
+      <c r="FL3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="FL3" s="21">
+      <c r="FM3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="FM3" s="21">
+      <c r="FN3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="FN3" s="21">
+      <c r="FO3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="FO3" s="21">
+      <c r="FP3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="FP3" s="21">
+      <c r="FQ3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="FQ3" s="21">
+      <c r="FR3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="FR3" s="21">
+      <c r="FS3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="FS3" s="21">
+      <c r="FT3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="FT3" s="21">
+      <c r="FU3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="FU3" s="21">
+      <c r="FV3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="FV3" s="21">
+      <c r="FW3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="FW3" s="21">
+      <c r="FX3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="FX3" s="21">
+      <c r="FY3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="FY3" s="21">
+      <c r="FZ3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="FZ3" s="21">
+      <c r="GA3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="GA3" s="21">
+      <c r="GB3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="GB3" s="21">
+      <c r="GC3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="GC3" s="21">
+      <c r="GD3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="GD3" s="21">
+      <c r="GE3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="GE3" s="21">
+      <c r="GF3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="GF3" s="21">
+      <c r="GG3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="GG3" s="21">
+      <c r="GH3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="GH3" s="21">
+      <c r="GI3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="GI3" s="21">
+      <c r="GJ3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="GJ3" s="21">
+      <c r="GK3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="GK3" s="21">
+      <c r="GL3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="GL3" s="21">
+      <c r="GM3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="GM3" s="21">
+      <c r="GN3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="GN3" s="21">
+      <c r="GO3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="GO3" s="21">
+      <c r="GP3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="GP3" s="21">
+      <c r="GQ3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="GQ3" s="21">
+      <c r="GR3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="GR3" s="21">
+      <c r="GS3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="GS3" s="21">
+      <c r="GT3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="GT3" s="21">
+      <c r="GU3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="GU3" s="21">
+      <c r="GV3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="GV3" s="21">
+      <c r="GW3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="GW3" s="21">
+      <c r="GX3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="GX3" s="21">
+      <c r="GY3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="GY3" s="21">
+      <c r="GZ3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="GZ3" s="21">
+      <c r="HA3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="HA3" s="21">
+      <c r="HB3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="HB3" s="21">
+      <c r="HC3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="HC3" s="21">
+      <c r="HD3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="HD3" s="21">
+      <c r="HE3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="HE3" s="21">
+      <c r="HF3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="HF3" s="21">
+      <c r="HG3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="HG3" s="21">
+      <c r="HH3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="HH3" s="21">
+      <c r="HI3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="HI3" s="21">
+      <c r="HJ3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="HJ3" s="21">
+      <c r="HK3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="HK3" s="21">
+      <c r="HL3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="HL3" s="21">
+      <c r="HM3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="HM3" s="21">
+      <c r="HN3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="HN3" s="21">
+      <c r="HO3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="HO3" s="21">
+      <c r="HP3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="HP3" s="21">
+      <c r="HQ3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="HQ3" s="21">
+      <c r="HR3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="HR3" s="21">
+      <c r="HS3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="HS3" s="21">
+      <c r="HT3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="HT3" s="21">
+      <c r="HU3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="HU3" s="21">
+      <c r="HV3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="HV3" s="21">
+      <c r="HW3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="HW3" s="21">
+      <c r="HX3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="HX3" s="21">
+      <c r="HY3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="HY3" s="21">
+      <c r="HZ3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="HZ3" s="21">
+      <c r="IA3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="IA3" s="21">
+      <c r="IB3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="IB3" s="21">
+      <c r="IC3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="IC3" s="21">
+      <c r="ID3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="ID3" s="21">
+      <c r="IE3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="IE3" s="21">
+      <c r="IF3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="IF3" s="21">
+      <c r="IG3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="IG3" s="21">
+      <c r="IH3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="IH3" s="21">
+      <c r="II3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="II3" s="21">
+      <c r="IJ3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="IJ3" s="21">
+      <c r="IK3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="IK3" s="21">
+      <c r="IL3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="IL3" s="21">
+      <c r="IM3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="IM3" s="21">
+      <c r="IN3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="IN3" s="21">
+      <c r="IO3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="IO3" s="21">
+      <c r="IP3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="IP3" s="21">
+      <c r="IQ3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="IQ3" s="21">
+      <c r="IR3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="IR3" s="21">
+      <c r="IS3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="IS3" s="21">
+      <c r="IT3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="IT3" s="21">
+      <c r="IU3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="IU3" s="21">
+      <c r="IV3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="IV3" s="21">
+      <c r="IW3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="IW3" s="21">
+      <c r="IX3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="IX3" s="21">
+      <c r="IY3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="IY3" s="21">
+      <c r="IZ3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="IZ3" s="21">
+      <c r="JA3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="JA3" s="21">
+      <c r="JB3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="JB3" s="21">
+      <c r="JC3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="JC3" s="21">
+      <c r="JD3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="JD3" s="21">
+      <c r="JE3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="JE3" s="21">
+      <c r="JF3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="JF3" s="21">
+      <c r="JG3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="JG3" s="21">
+      <c r="JH3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="JH3" s="21">
+      <c r="JI3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="JI3" s="21">
+      <c r="JJ3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="JJ3" s="21">
+      <c r="JK3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="JK3" s="21">
+      <c r="JL3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="JL3" s="21">
+      <c r="JM3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="JM3" s="21">
+      <c r="JN3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="JN3" s="21">
+      <c r="JO3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="JO3" s="21">
+      <c r="JP3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="JP3" s="21">
+      <c r="JQ3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="JQ3" s="21">
+      <c r="JR3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="JR3" s="21">
+      <c r="JS3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="JS3" s="21">
+      <c r="JT3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="JT3" s="21">
+      <c r="JU3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="JU3" s="21">
+      <c r="JV3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="JV3" s="21">
+      <c r="JW3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="JW3" s="21">
+      <c r="JX3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="JX3" s="21">
+      <c r="JY3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="JY3" s="21">
+      <c r="JZ3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="JZ3" s="21">
+      <c r="KA3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="KA3" s="21">
+      <c r="KB3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="KB3" s="21">
+      <c r="KC3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="KC3" s="21">
+      <c r="KD3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="KD3" s="21">
+      <c r="KE3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="KE3" s="21">
+      <c r="KF3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="KF3" s="21">
+      <c r="KG3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="KG3" s="21">
+      <c r="KH3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="KH3" s="21">
+      <c r="KI3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="KI3" s="21">
+      <c r="KJ3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="KJ3" s="21">
+      <c r="KK3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="KK3" s="21">
+      <c r="KL3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="KL3" s="21">
+      <c r="KM3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="KM3" s="21">
+      <c r="KN3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="KN3" s="21">
+      <c r="KO3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="KO3" s="21">
+      <c r="KP3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="KP3" s="21">
+      <c r="KQ3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="KQ3" s="21">
+      <c r="KR3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="KR3" s="21">
+      <c r="KS3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="KS3" s="21">
+      <c r="KT3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="KT3" s="21">
+      <c r="KU3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="KU3" s="21">
+      <c r="KV3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="KV3" s="21">
+      <c r="KW3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="KW3" s="21">
+      <c r="KX3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="KX3" s="21">
+      <c r="KY3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="KY3" s="21">
+      <c r="KZ3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="KZ3" s="21">
+      <c r="LA3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="LA3" s="21">
+      <c r="LB3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="LB3" s="21">
+      <c r="LC3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="LC3" s="21">
+      <c r="LD3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="LD3" s="21">
+      <c r="LE3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="LE3" s="21">
+      <c r="LF3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="LF3" s="21">
+      <c r="LG3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="LG3" s="21">
+      <c r="LH3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="LH3" s="21">
+      <c r="LI3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="LI3" s="21">
+      <c r="LJ3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="LJ3" s="21">
+      <c r="LK3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="LK3" s="21">
+      <c r="LL3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="LL3" s="21">
+      <c r="LM3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="LM3" s="21">
+      <c r="LN3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="LN3" s="21">
+      <c r="LO3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="LO3" s="21">
+      <c r="LP3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="LP3" s="21">
+      <c r="LQ3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="LQ3" s="21">
+      <c r="LR3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="LR3" s="21">
+      <c r="LS3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="LS3" s="21">
+      <c r="LT3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="LT3" s="21">
+      <c r="LU3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="LU3" s="21">
+      <c r="LV3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="LV3" s="21">
+      <c r="LW3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="LW3" s="21">
+      <c r="LX3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="LX3" s="21">
+      <c r="LY3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="LY3" s="21">
+      <c r="LZ3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="LZ3" s="21">
+      <c r="MA3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="MA3" s="21">
+      <c r="MB3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="MB3" s="21">
+      <c r="MC3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="MC3" s="21">
+      <c r="MD3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="MD3" s="21">
+      <c r="ME3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="ME3" s="21">
+      <c r="MF3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="MF3" s="21">
+      <c r="MG3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="MG3" s="21">
+      <c r="MH3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="MH3" s="21">
+      <c r="MI3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="MI3" s="21">
+      <c r="MJ3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="MJ3" s="21">
+      <c r="MK3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="MK3" s="21">
+      <c r="ML3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="ML3" s="21">
+      <c r="MM3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="MM3" s="21">
+      <c r="MN3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="MN3" s="21">
+      <c r="MO3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="MO3" s="21">
+      <c r="MP3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="MP3" s="21">
+      <c r="MQ3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="MQ3" s="21">
+      <c r="MR3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="MR3" s="21">
+      <c r="MS3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="MS3" s="21">
+      <c r="MT3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="MT3" s="21">
+      <c r="MU3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="MU3" s="21">
+      <c r="MV3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="MV3" s="21">
+      <c r="MW3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="MW3" s="21">
+      <c r="MX3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="MX3" s="21">
+      <c r="MY3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="MY3" s="21">
+      <c r="MZ3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="MZ3" s="21">
+      <c r="NA3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="NA3" s="21">
+      <c r="NB3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="NB3" s="21">
+      <c r="NC3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="NC3" s="21">
+      <c r="ND3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="ND3" s="21">
+      <c r="NE3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="NE3" s="21">
+      <c r="NF3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="NF3" s="21">
+      <c r="NG3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="NG3" s="21">
+      <c r="NH3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="NH3" s="21">
+      <c r="NI3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="NI3" s="21">
+      <c r="NJ3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="NJ3" s="21">
+      <c r="NK3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="NK3" s="21">
+      <c r="NL3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="NL3" s="21">
+      <c r="NM3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="NM3" s="21">
+      <c r="NN3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="NN3" s="21">
+      <c r="NO3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="NO3" s="21">
+      <c r="NP3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="NP3" s="21">
+      <c r="NQ3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="NQ3" s="21">
+      <c r="NR3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="NR3" s="21">
+      <c r="NS3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="NS3" s="21">
+      <c r="NT3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="NT3" s="21">
+      <c r="NU3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="NU3" s="21">
+      <c r="NV3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="NV3" s="21">
+      <c r="NW3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="NW3" s="21">
+      <c r="NX3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="NX3" s="21">
+      <c r="NY3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="NY3" s="21">
+      <c r="NZ3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="NZ3" s="21">
+      <c r="OA3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="OA3" s="21">
+      <c r="OB3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="OB3" s="21">
+      <c r="OC3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="OC3" s="21">
+      <c r="OD3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="OD3" s="21">
+      <c r="OE3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="OE3" s="21">
+      <c r="OF3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="OF3" s="21">
+      <c r="OG3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="OG3" s="21">
+      <c r="OH3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="OH3" s="21">
+      <c r="OI3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="OI3" s="21">
+      <c r="OJ3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="OJ3" s="21">
+      <c r="OK3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="OK3" s="21">
+      <c r="OL3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="OL3" s="21">
+      <c r="OM3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="OM3" s="21">
+      <c r="ON3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="ON3" s="21">
+      <c r="OO3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="OO3" s="21">
+      <c r="OP3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="OP3" s="21">
+      <c r="OQ3" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="OQ3" s="21">
+      <c r="OR3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="OR3" s="21">
+      <c r="OS3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="OS3" s="21">
+      <c r="OT3" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="OT3" s="21">
+      <c r="OU3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="OU3" s="21">
+      <c r="OV3" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="OV3" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:412" ht="12.75" x14ac:dyDescent="0.2">
@@ -3647,1623 +3638,1623 @@
       <c r="B4" s="19"/>
       <c r="H4" s="24">
         <f>D1-1</f>
-        <v>43698</v>
+        <v>44957</v>
       </c>
       <c r="I4" s="24">
         <f t="shared" ref="I4:OV4" si="1">H4+1</f>
-        <v>43699</v>
+        <v>44958</v>
       </c>
       <c r="J4" s="24">
         <f t="shared" si="1"/>
-        <v>43700</v>
+        <v>44959</v>
       </c>
       <c r="K4" s="24">
         <f t="shared" si="1"/>
-        <v>43701</v>
+        <v>44960</v>
       </c>
       <c r="L4" s="24">
         <f t="shared" si="1"/>
-        <v>43702</v>
+        <v>44961</v>
       </c>
       <c r="M4" s="24">
         <f t="shared" si="1"/>
-        <v>43703</v>
+        <v>44962</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" si="1"/>
-        <v>43704</v>
+        <v>44963</v>
       </c>
       <c r="O4" s="24">
         <f t="shared" si="1"/>
-        <v>43705</v>
+        <v>44964</v>
       </c>
       <c r="P4" s="24">
         <f t="shared" si="1"/>
-        <v>43706</v>
+        <v>44965</v>
       </c>
       <c r="Q4" s="24">
         <f t="shared" si="1"/>
-        <v>43707</v>
+        <v>44966</v>
       </c>
       <c r="R4" s="24">
         <f t="shared" si="1"/>
-        <v>43708</v>
+        <v>44967</v>
       </c>
       <c r="S4" s="24">
         <f t="shared" si="1"/>
-        <v>43709</v>
+        <v>44968</v>
       </c>
       <c r="T4" s="24">
         <f t="shared" si="1"/>
-        <v>43710</v>
+        <v>44969</v>
       </c>
       <c r="U4" s="24">
         <f t="shared" si="1"/>
-        <v>43711</v>
+        <v>44970</v>
       </c>
       <c r="V4" s="24">
         <f t="shared" si="1"/>
-        <v>43712</v>
+        <v>44971</v>
       </c>
       <c r="W4" s="24">
         <f t="shared" si="1"/>
-        <v>43713</v>
+        <v>44972</v>
       </c>
       <c r="X4" s="24">
         <f t="shared" si="1"/>
-        <v>43714</v>
+        <v>44973</v>
       </c>
       <c r="Y4" s="24">
         <f t="shared" si="1"/>
-        <v>43715</v>
+        <v>44974</v>
       </c>
       <c r="Z4" s="24">
         <f t="shared" si="1"/>
-        <v>43716</v>
+        <v>44975</v>
       </c>
       <c r="AA4" s="24">
         <f t="shared" si="1"/>
-        <v>43717</v>
+        <v>44976</v>
       </c>
       <c r="AB4" s="24">
         <f t="shared" si="1"/>
-        <v>43718</v>
+        <v>44977</v>
       </c>
       <c r="AC4" s="24">
         <f t="shared" si="1"/>
-        <v>43719</v>
+        <v>44978</v>
       </c>
       <c r="AD4" s="24">
         <f t="shared" si="1"/>
-        <v>43720</v>
+        <v>44979</v>
       </c>
       <c r="AE4" s="24">
         <f t="shared" si="1"/>
-        <v>43721</v>
+        <v>44980</v>
       </c>
       <c r="AF4" s="24">
         <f t="shared" si="1"/>
-        <v>43722</v>
+        <v>44981</v>
       </c>
       <c r="AG4" s="24">
         <f t="shared" si="1"/>
-        <v>43723</v>
+        <v>44982</v>
       </c>
       <c r="AH4" s="24">
         <f t="shared" si="1"/>
-        <v>43724</v>
+        <v>44983</v>
       </c>
       <c r="AI4" s="24">
         <f t="shared" si="1"/>
-        <v>43725</v>
+        <v>44984</v>
       </c>
       <c r="AJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43726</v>
+        <v>44985</v>
       </c>
       <c r="AK4" s="24">
         <f t="shared" si="1"/>
-        <v>43727</v>
+        <v>44986</v>
       </c>
       <c r="AL4" s="24">
         <f t="shared" si="1"/>
-        <v>43728</v>
+        <v>44987</v>
       </c>
       <c r="AM4" s="24">
         <f t="shared" si="1"/>
-        <v>43729</v>
+        <v>44988</v>
       </c>
       <c r="AN4" s="24">
         <f t="shared" si="1"/>
-        <v>43730</v>
+        <v>44989</v>
       </c>
       <c r="AO4" s="24">
         <f t="shared" si="1"/>
-        <v>43731</v>
+        <v>44990</v>
       </c>
       <c r="AP4" s="24">
         <f t="shared" si="1"/>
-        <v>43732</v>
+        <v>44991</v>
       </c>
       <c r="AQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43733</v>
+        <v>44992</v>
       </c>
       <c r="AR4" s="24">
         <f t="shared" si="1"/>
-        <v>43734</v>
+        <v>44993</v>
       </c>
       <c r="AS4" s="24">
         <f t="shared" si="1"/>
-        <v>43735</v>
+        <v>44994</v>
       </c>
       <c r="AT4" s="24">
         <f t="shared" si="1"/>
-        <v>43736</v>
+        <v>44995</v>
       </c>
       <c r="AU4" s="24">
         <f t="shared" si="1"/>
-        <v>43737</v>
+        <v>44996</v>
       </c>
       <c r="AV4" s="24">
         <f t="shared" si="1"/>
-        <v>43738</v>
+        <v>44997</v>
       </c>
       <c r="AW4" s="24">
         <f t="shared" si="1"/>
-        <v>43739</v>
+        <v>44998</v>
       </c>
       <c r="AX4" s="24">
         <f t="shared" si="1"/>
-        <v>43740</v>
+        <v>44999</v>
       </c>
       <c r="AY4" s="24">
         <f t="shared" si="1"/>
-        <v>43741</v>
+        <v>45000</v>
       </c>
       <c r="AZ4" s="24">
         <f t="shared" si="1"/>
-        <v>43742</v>
+        <v>45001</v>
       </c>
       <c r="BA4" s="24">
         <f t="shared" si="1"/>
-        <v>43743</v>
+        <v>45002</v>
       </c>
       <c r="BB4" s="24">
         <f t="shared" si="1"/>
-        <v>43744</v>
+        <v>45003</v>
       </c>
       <c r="BC4" s="24">
         <f t="shared" si="1"/>
-        <v>43745</v>
+        <v>45004</v>
       </c>
       <c r="BD4" s="24">
         <f t="shared" si="1"/>
-        <v>43746</v>
+        <v>45005</v>
       </c>
       <c r="BE4" s="24">
         <f t="shared" si="1"/>
-        <v>43747</v>
+        <v>45006</v>
       </c>
       <c r="BF4" s="24">
         <f t="shared" si="1"/>
-        <v>43748</v>
+        <v>45007</v>
       </c>
       <c r="BG4" s="24">
         <f t="shared" si="1"/>
-        <v>43749</v>
+        <v>45008</v>
       </c>
       <c r="BH4" s="24">
         <f t="shared" si="1"/>
-        <v>43750</v>
+        <v>45009</v>
       </c>
       <c r="BI4" s="24">
         <f t="shared" si="1"/>
-        <v>43751</v>
+        <v>45010</v>
       </c>
       <c r="BJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43752</v>
+        <v>45011</v>
       </c>
       <c r="BK4" s="24">
         <f t="shared" si="1"/>
-        <v>43753</v>
+        <v>45012</v>
       </c>
       <c r="BL4" s="24">
         <f t="shared" si="1"/>
-        <v>43754</v>
+        <v>45013</v>
       </c>
       <c r="BM4" s="24">
         <f t="shared" si="1"/>
-        <v>43755</v>
+        <v>45014</v>
       </c>
       <c r="BN4" s="24">
         <f t="shared" si="1"/>
-        <v>43756</v>
+        <v>45015</v>
       </c>
       <c r="BO4" s="24">
         <f t="shared" si="1"/>
-        <v>43757</v>
+        <v>45016</v>
       </c>
       <c r="BP4" s="24">
         <f t="shared" si="1"/>
-        <v>43758</v>
+        <v>45017</v>
       </c>
       <c r="BQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43759</v>
+        <v>45018</v>
       </c>
       <c r="BR4" s="24">
         <f t="shared" si="1"/>
-        <v>43760</v>
+        <v>45019</v>
       </c>
       <c r="BS4" s="24">
         <f t="shared" si="1"/>
-        <v>43761</v>
+        <v>45020</v>
       </c>
       <c r="BT4" s="24">
         <f t="shared" si="1"/>
-        <v>43762</v>
+        <v>45021</v>
       </c>
       <c r="BU4" s="24">
         <f t="shared" si="1"/>
-        <v>43763</v>
+        <v>45022</v>
       </c>
       <c r="BV4" s="24">
         <f t="shared" si="1"/>
-        <v>43764</v>
+        <v>45023</v>
       </c>
       <c r="BW4" s="24">
         <f t="shared" si="1"/>
-        <v>43765</v>
+        <v>45024</v>
       </c>
       <c r="BX4" s="24">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>45025</v>
       </c>
       <c r="BY4" s="24">
         <f t="shared" si="1"/>
-        <v>43767</v>
+        <v>45026</v>
       </c>
       <c r="BZ4" s="24">
         <f t="shared" si="1"/>
-        <v>43768</v>
+        <v>45027</v>
       </c>
       <c r="CA4" s="24">
         <f t="shared" si="1"/>
-        <v>43769</v>
+        <v>45028</v>
       </c>
       <c r="CB4" s="24">
         <f t="shared" si="1"/>
-        <v>43770</v>
+        <v>45029</v>
       </c>
       <c r="CC4" s="24">
         <f t="shared" si="1"/>
-        <v>43771</v>
+        <v>45030</v>
       </c>
       <c r="CD4" s="24">
         <f t="shared" si="1"/>
-        <v>43772</v>
+        <v>45031</v>
       </c>
       <c r="CE4" s="24">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>45032</v>
       </c>
       <c r="CF4" s="24">
         <f t="shared" si="1"/>
-        <v>43774</v>
+        <v>45033</v>
       </c>
       <c r="CG4" s="24">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>45034</v>
       </c>
       <c r="CH4" s="24">
         <f t="shared" si="1"/>
-        <v>43776</v>
+        <v>45035</v>
       </c>
       <c r="CI4" s="24">
         <f t="shared" si="1"/>
-        <v>43777</v>
+        <v>45036</v>
       </c>
       <c r="CJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>45037</v>
       </c>
       <c r="CK4" s="24">
         <f t="shared" si="1"/>
-        <v>43779</v>
+        <v>45038</v>
       </c>
       <c r="CL4" s="24">
         <f t="shared" si="1"/>
-        <v>43780</v>
+        <v>45039</v>
       </c>
       <c r="CM4" s="24">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>45040</v>
       </c>
       <c r="CN4" s="24">
         <f t="shared" si="1"/>
-        <v>43782</v>
+        <v>45041</v>
       </c>
       <c r="CO4" s="24">
         <f t="shared" si="1"/>
-        <v>43783</v>
+        <v>45042</v>
       </c>
       <c r="CP4" s="24">
         <f t="shared" si="1"/>
-        <v>43784</v>
+        <v>45043</v>
       </c>
       <c r="CQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43785</v>
+        <v>45044</v>
       </c>
       <c r="CR4" s="24">
         <f t="shared" si="1"/>
-        <v>43786</v>
+        <v>45045</v>
       </c>
       <c r="CS4" s="24">
         <f t="shared" si="1"/>
-        <v>43787</v>
+        <v>45046</v>
       </c>
       <c r="CT4" s="24">
         <f t="shared" si="1"/>
-        <v>43788</v>
+        <v>45047</v>
       </c>
       <c r="CU4" s="24">
         <f t="shared" si="1"/>
-        <v>43789</v>
+        <v>45048</v>
       </c>
       <c r="CV4" s="24">
         <f t="shared" si="1"/>
-        <v>43790</v>
+        <v>45049</v>
       </c>
       <c r="CW4" s="24">
         <f t="shared" si="1"/>
-        <v>43791</v>
+        <v>45050</v>
       </c>
       <c r="CX4" s="24">
         <f t="shared" si="1"/>
-        <v>43792</v>
+        <v>45051</v>
       </c>
       <c r="CY4" s="24">
         <f t="shared" si="1"/>
-        <v>43793</v>
+        <v>45052</v>
       </c>
       <c r="CZ4" s="24">
         <f t="shared" si="1"/>
-        <v>43794</v>
+        <v>45053</v>
       </c>
       <c r="DA4" s="24">
         <f t="shared" si="1"/>
-        <v>43795</v>
+        <v>45054</v>
       </c>
       <c r="DB4" s="24">
         <f t="shared" si="1"/>
-        <v>43796</v>
+        <v>45055</v>
       </c>
       <c r="DC4" s="24">
         <f t="shared" si="1"/>
-        <v>43797</v>
+        <v>45056</v>
       </c>
       <c r="DD4" s="24">
         <f t="shared" si="1"/>
-        <v>43798</v>
+        <v>45057</v>
       </c>
       <c r="DE4" s="24">
         <f t="shared" si="1"/>
-        <v>43799</v>
+        <v>45058</v>
       </c>
       <c r="DF4" s="24">
         <f t="shared" si="1"/>
-        <v>43800</v>
+        <v>45059</v>
       </c>
       <c r="DG4" s="24">
         <f t="shared" si="1"/>
-        <v>43801</v>
+        <v>45060</v>
       </c>
       <c r="DH4" s="24">
         <f t="shared" si="1"/>
-        <v>43802</v>
+        <v>45061</v>
       </c>
       <c r="DI4" s="24">
         <f t="shared" si="1"/>
-        <v>43803</v>
+        <v>45062</v>
       </c>
       <c r="DJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43804</v>
+        <v>45063</v>
       </c>
       <c r="DK4" s="24">
         <f t="shared" si="1"/>
-        <v>43805</v>
+        <v>45064</v>
       </c>
       <c r="DL4" s="24">
         <f t="shared" si="1"/>
-        <v>43806</v>
+        <v>45065</v>
       </c>
       <c r="DM4" s="24">
         <f t="shared" si="1"/>
-        <v>43807</v>
+        <v>45066</v>
       </c>
       <c r="DN4" s="24">
         <f t="shared" si="1"/>
-        <v>43808</v>
+        <v>45067</v>
       </c>
       <c r="DO4" s="24">
         <f t="shared" si="1"/>
-        <v>43809</v>
+        <v>45068</v>
       </c>
       <c r="DP4" s="24">
         <f t="shared" si="1"/>
-        <v>43810</v>
+        <v>45069</v>
       </c>
       <c r="DQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43811</v>
+        <v>45070</v>
       </c>
       <c r="DR4" s="24">
         <f t="shared" si="1"/>
-        <v>43812</v>
+        <v>45071</v>
       </c>
       <c r="DS4" s="24">
         <f t="shared" si="1"/>
-        <v>43813</v>
+        <v>45072</v>
       </c>
       <c r="DT4" s="24">
         <f t="shared" si="1"/>
-        <v>43814</v>
+        <v>45073</v>
       </c>
       <c r="DU4" s="24">
         <f t="shared" si="1"/>
-        <v>43815</v>
+        <v>45074</v>
       </c>
       <c r="DV4" s="24">
         <f t="shared" si="1"/>
-        <v>43816</v>
+        <v>45075</v>
       </c>
       <c r="DW4" s="24">
         <f t="shared" si="1"/>
-        <v>43817</v>
+        <v>45076</v>
       </c>
       <c r="DX4" s="24">
         <f t="shared" si="1"/>
-        <v>43818</v>
+        <v>45077</v>
       </c>
       <c r="DY4" s="24">
         <f t="shared" si="1"/>
-        <v>43819</v>
+        <v>45078</v>
       </c>
       <c r="DZ4" s="24">
         <f t="shared" si="1"/>
-        <v>43820</v>
+        <v>45079</v>
       </c>
       <c r="EA4" s="24">
         <f t="shared" si="1"/>
-        <v>43821</v>
+        <v>45080</v>
       </c>
       <c r="EB4" s="24">
         <f t="shared" si="1"/>
-        <v>43822</v>
+        <v>45081</v>
       </c>
       <c r="EC4" s="24">
         <f t="shared" si="1"/>
-        <v>43823</v>
+        <v>45082</v>
       </c>
       <c r="ED4" s="24">
         <f t="shared" si="1"/>
-        <v>43824</v>
+        <v>45083</v>
       </c>
       <c r="EE4" s="24">
         <f t="shared" si="1"/>
-        <v>43825</v>
+        <v>45084</v>
       </c>
       <c r="EF4" s="24">
         <f t="shared" si="1"/>
-        <v>43826</v>
+        <v>45085</v>
       </c>
       <c r="EG4" s="24">
         <f t="shared" si="1"/>
-        <v>43827</v>
+        <v>45086</v>
       </c>
       <c r="EH4" s="24">
         <f t="shared" si="1"/>
-        <v>43828</v>
+        <v>45087</v>
       </c>
       <c r="EI4" s="24">
         <f t="shared" si="1"/>
-        <v>43829</v>
+        <v>45088</v>
       </c>
       <c r="EJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43830</v>
+        <v>45089</v>
       </c>
       <c r="EK4" s="24">
         <f t="shared" si="1"/>
-        <v>43831</v>
+        <v>45090</v>
       </c>
       <c r="EL4" s="24">
         <f t="shared" si="1"/>
-        <v>43832</v>
+        <v>45091</v>
       </c>
       <c r="EM4" s="24">
         <f t="shared" si="1"/>
-        <v>43833</v>
+        <v>45092</v>
       </c>
       <c r="EN4" s="24">
         <f t="shared" si="1"/>
-        <v>43834</v>
+        <v>45093</v>
       </c>
       <c r="EO4" s="24">
         <f t="shared" si="1"/>
-        <v>43835</v>
+        <v>45094</v>
       </c>
       <c r="EP4" s="24">
         <f t="shared" si="1"/>
-        <v>43836</v>
+        <v>45095</v>
       </c>
       <c r="EQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43837</v>
+        <v>45096</v>
       </c>
       <c r="ER4" s="24">
         <f t="shared" si="1"/>
-        <v>43838</v>
+        <v>45097</v>
       </c>
       <c r="ES4" s="24">
         <f t="shared" si="1"/>
-        <v>43839</v>
+        <v>45098</v>
       </c>
       <c r="ET4" s="24">
         <f t="shared" si="1"/>
-        <v>43840</v>
+        <v>45099</v>
       </c>
       <c r="EU4" s="24">
         <f t="shared" si="1"/>
-        <v>43841</v>
+        <v>45100</v>
       </c>
       <c r="EV4" s="24">
         <f t="shared" si="1"/>
-        <v>43842</v>
+        <v>45101</v>
       </c>
       <c r="EW4" s="24">
         <f t="shared" si="1"/>
-        <v>43843</v>
+        <v>45102</v>
       </c>
       <c r="EX4" s="24">
         <f t="shared" si="1"/>
-        <v>43844</v>
+        <v>45103</v>
       </c>
       <c r="EY4" s="24">
         <f t="shared" si="1"/>
-        <v>43845</v>
+        <v>45104</v>
       </c>
       <c r="EZ4" s="24">
         <f t="shared" si="1"/>
-        <v>43846</v>
+        <v>45105</v>
       </c>
       <c r="FA4" s="24">
         <f t="shared" si="1"/>
-        <v>43847</v>
+        <v>45106</v>
       </c>
       <c r="FB4" s="24">
         <f t="shared" si="1"/>
-        <v>43848</v>
+        <v>45107</v>
       </c>
       <c r="FC4" s="24">
         <f t="shared" si="1"/>
-        <v>43849</v>
+        <v>45108</v>
       </c>
       <c r="FD4" s="24">
         <f t="shared" si="1"/>
-        <v>43850</v>
+        <v>45109</v>
       </c>
       <c r="FE4" s="24">
         <f t="shared" si="1"/>
-        <v>43851</v>
+        <v>45110</v>
       </c>
       <c r="FF4" s="24">
         <f t="shared" si="1"/>
-        <v>43852</v>
+        <v>45111</v>
       </c>
       <c r="FG4" s="24">
         <f t="shared" si="1"/>
-        <v>43853</v>
+        <v>45112</v>
       </c>
       <c r="FH4" s="24">
         <f t="shared" si="1"/>
-        <v>43854</v>
+        <v>45113</v>
       </c>
       <c r="FI4" s="24">
         <f t="shared" si="1"/>
-        <v>43855</v>
+        <v>45114</v>
       </c>
       <c r="FJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43856</v>
+        <v>45115</v>
       </c>
       <c r="FK4" s="24">
         <f t="shared" si="1"/>
-        <v>43857</v>
+        <v>45116</v>
       </c>
       <c r="FL4" s="24">
         <f t="shared" si="1"/>
-        <v>43858</v>
+        <v>45117</v>
       </c>
       <c r="FM4" s="24">
         <f t="shared" si="1"/>
-        <v>43859</v>
+        <v>45118</v>
       </c>
       <c r="FN4" s="24">
         <f t="shared" si="1"/>
-        <v>43860</v>
+        <v>45119</v>
       </c>
       <c r="FO4" s="24">
         <f t="shared" si="1"/>
-        <v>43861</v>
+        <v>45120</v>
       </c>
       <c r="FP4" s="24">
         <f t="shared" si="1"/>
-        <v>43862</v>
+        <v>45121</v>
       </c>
       <c r="FQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43863</v>
+        <v>45122</v>
       </c>
       <c r="FR4" s="24">
         <f t="shared" si="1"/>
-        <v>43864</v>
+        <v>45123</v>
       </c>
       <c r="FS4" s="24">
         <f t="shared" si="1"/>
-        <v>43865</v>
+        <v>45124</v>
       </c>
       <c r="FT4" s="24">
         <f t="shared" si="1"/>
-        <v>43866</v>
+        <v>45125</v>
       </c>
       <c r="FU4" s="24">
         <f t="shared" si="1"/>
-        <v>43867</v>
+        <v>45126</v>
       </c>
       <c r="FV4" s="24">
         <f t="shared" si="1"/>
-        <v>43868</v>
+        <v>45127</v>
       </c>
       <c r="FW4" s="24">
         <f t="shared" si="1"/>
-        <v>43869</v>
+        <v>45128</v>
       </c>
       <c r="FX4" s="24">
         <f t="shared" si="1"/>
-        <v>43870</v>
+        <v>45129</v>
       </c>
       <c r="FY4" s="24">
         <f t="shared" si="1"/>
-        <v>43871</v>
+        <v>45130</v>
       </c>
       <c r="FZ4" s="24">
         <f t="shared" si="1"/>
-        <v>43872</v>
+        <v>45131</v>
       </c>
       <c r="GA4" s="24">
         <f t="shared" si="1"/>
-        <v>43873</v>
+        <v>45132</v>
       </c>
       <c r="GB4" s="24">
         <f t="shared" si="1"/>
-        <v>43874</v>
+        <v>45133</v>
       </c>
       <c r="GC4" s="24">
         <f t="shared" si="1"/>
-        <v>43875</v>
+        <v>45134</v>
       </c>
       <c r="GD4" s="24">
         <f t="shared" si="1"/>
-        <v>43876</v>
+        <v>45135</v>
       </c>
       <c r="GE4" s="24">
         <f t="shared" si="1"/>
-        <v>43877</v>
+        <v>45136</v>
       </c>
       <c r="GF4" s="24">
         <f t="shared" si="1"/>
-        <v>43878</v>
+        <v>45137</v>
       </c>
       <c r="GG4" s="24">
         <f t="shared" si="1"/>
-        <v>43879</v>
+        <v>45138</v>
       </c>
       <c r="GH4" s="24">
         <f t="shared" si="1"/>
-        <v>43880</v>
+        <v>45139</v>
       </c>
       <c r="GI4" s="24">
         <f t="shared" si="1"/>
-        <v>43881</v>
+        <v>45140</v>
       </c>
       <c r="GJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43882</v>
+        <v>45141</v>
       </c>
       <c r="GK4" s="24">
         <f t="shared" si="1"/>
-        <v>43883</v>
+        <v>45142</v>
       </c>
       <c r="GL4" s="24">
         <f t="shared" si="1"/>
-        <v>43884</v>
+        <v>45143</v>
       </c>
       <c r="GM4" s="24">
         <f t="shared" si="1"/>
-        <v>43885</v>
+        <v>45144</v>
       </c>
       <c r="GN4" s="24">
         <f t="shared" si="1"/>
-        <v>43886</v>
+        <v>45145</v>
       </c>
       <c r="GO4" s="24">
         <f t="shared" si="1"/>
-        <v>43887</v>
+        <v>45146</v>
       </c>
       <c r="GP4" s="24">
         <f t="shared" si="1"/>
-        <v>43888</v>
+        <v>45147</v>
       </c>
       <c r="GQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43889</v>
+        <v>45148</v>
       </c>
       <c r="GR4" s="24">
         <f t="shared" si="1"/>
-        <v>43890</v>
+        <v>45149</v>
       </c>
       <c r="GS4" s="24">
         <f t="shared" si="1"/>
-        <v>43891</v>
+        <v>45150</v>
       </c>
       <c r="GT4" s="24">
         <f t="shared" si="1"/>
-        <v>43892</v>
+        <v>45151</v>
       </c>
       <c r="GU4" s="24">
         <f t="shared" si="1"/>
-        <v>43893</v>
+        <v>45152</v>
       </c>
       <c r="GV4" s="24">
         <f t="shared" si="1"/>
-        <v>43894</v>
+        <v>45153</v>
       </c>
       <c r="GW4" s="24">
         <f t="shared" si="1"/>
-        <v>43895</v>
+        <v>45154</v>
       </c>
       <c r="GX4" s="24">
         <f t="shared" si="1"/>
-        <v>43896</v>
+        <v>45155</v>
       </c>
       <c r="GY4" s="24">
         <f t="shared" si="1"/>
-        <v>43897</v>
+        <v>45156</v>
       </c>
       <c r="GZ4" s="24">
         <f t="shared" si="1"/>
-        <v>43898</v>
+        <v>45157</v>
       </c>
       <c r="HA4" s="24">
         <f t="shared" si="1"/>
-        <v>43899</v>
+        <v>45158</v>
       </c>
       <c r="HB4" s="24">
         <f t="shared" si="1"/>
-        <v>43900</v>
+        <v>45159</v>
       </c>
       <c r="HC4" s="24">
         <f t="shared" si="1"/>
-        <v>43901</v>
+        <v>45160</v>
       </c>
       <c r="HD4" s="24">
         <f t="shared" si="1"/>
-        <v>43902</v>
+        <v>45161</v>
       </c>
       <c r="HE4" s="24">
         <f t="shared" si="1"/>
-        <v>43903</v>
+        <v>45162</v>
       </c>
       <c r="HF4" s="24">
         <f t="shared" si="1"/>
-        <v>43904</v>
+        <v>45163</v>
       </c>
       <c r="HG4" s="24">
         <f t="shared" si="1"/>
-        <v>43905</v>
+        <v>45164</v>
       </c>
       <c r="HH4" s="24">
         <f t="shared" si="1"/>
-        <v>43906</v>
+        <v>45165</v>
       </c>
       <c r="HI4" s="24">
         <f t="shared" si="1"/>
-        <v>43907</v>
+        <v>45166</v>
       </c>
       <c r="HJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43908</v>
+        <v>45167</v>
       </c>
       <c r="HK4" s="24">
         <f t="shared" si="1"/>
-        <v>43909</v>
+        <v>45168</v>
       </c>
       <c r="HL4" s="24">
         <f t="shared" si="1"/>
-        <v>43910</v>
+        <v>45169</v>
       </c>
       <c r="HM4" s="24">
         <f t="shared" si="1"/>
-        <v>43911</v>
+        <v>45170</v>
       </c>
       <c r="HN4" s="24">
         <f t="shared" si="1"/>
-        <v>43912</v>
+        <v>45171</v>
       </c>
       <c r="HO4" s="24">
         <f t="shared" si="1"/>
-        <v>43913</v>
+        <v>45172</v>
       </c>
       <c r="HP4" s="24">
         <f t="shared" si="1"/>
-        <v>43914</v>
+        <v>45173</v>
       </c>
       <c r="HQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43915</v>
+        <v>45174</v>
       </c>
       <c r="HR4" s="24">
         <f t="shared" si="1"/>
-        <v>43916</v>
+        <v>45175</v>
       </c>
       <c r="HS4" s="24">
         <f t="shared" si="1"/>
-        <v>43917</v>
+        <v>45176</v>
       </c>
       <c r="HT4" s="24">
         <f t="shared" si="1"/>
-        <v>43918</v>
+        <v>45177</v>
       </c>
       <c r="HU4" s="24">
         <f t="shared" si="1"/>
-        <v>43919</v>
+        <v>45178</v>
       </c>
       <c r="HV4" s="24">
         <f t="shared" si="1"/>
-        <v>43920</v>
+        <v>45179</v>
       </c>
       <c r="HW4" s="24">
         <f t="shared" si="1"/>
-        <v>43921</v>
+        <v>45180</v>
       </c>
       <c r="HX4" s="24">
         <f t="shared" si="1"/>
-        <v>43922</v>
+        <v>45181</v>
       </c>
       <c r="HY4" s="24">
         <f t="shared" si="1"/>
-        <v>43923</v>
+        <v>45182</v>
       </c>
       <c r="HZ4" s="24">
         <f t="shared" si="1"/>
-        <v>43924</v>
+        <v>45183</v>
       </c>
       <c r="IA4" s="24">
         <f t="shared" si="1"/>
-        <v>43925</v>
+        <v>45184</v>
       </c>
       <c r="IB4" s="24">
         <f t="shared" si="1"/>
-        <v>43926</v>
+        <v>45185</v>
       </c>
       <c r="IC4" s="24">
         <f t="shared" si="1"/>
-        <v>43927</v>
+        <v>45186</v>
       </c>
       <c r="ID4" s="24">
         <f t="shared" si="1"/>
-        <v>43928</v>
+        <v>45187</v>
       </c>
       <c r="IE4" s="24">
         <f t="shared" si="1"/>
-        <v>43929</v>
+        <v>45188</v>
       </c>
       <c r="IF4" s="24">
         <f t="shared" si="1"/>
-        <v>43930</v>
+        <v>45189</v>
       </c>
       <c r="IG4" s="24">
         <f t="shared" si="1"/>
-        <v>43931</v>
+        <v>45190</v>
       </c>
       <c r="IH4" s="24">
         <f t="shared" si="1"/>
-        <v>43932</v>
+        <v>45191</v>
       </c>
       <c r="II4" s="24">
         <f t="shared" si="1"/>
-        <v>43933</v>
+        <v>45192</v>
       </c>
       <c r="IJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43934</v>
+        <v>45193</v>
       </c>
       <c r="IK4" s="24">
         <f t="shared" si="1"/>
-        <v>43935</v>
+        <v>45194</v>
       </c>
       <c r="IL4" s="24">
         <f t="shared" si="1"/>
-        <v>43936</v>
+        <v>45195</v>
       </c>
       <c r="IM4" s="24">
         <f t="shared" si="1"/>
-        <v>43937</v>
+        <v>45196</v>
       </c>
       <c r="IN4" s="24">
         <f t="shared" si="1"/>
-        <v>43938</v>
+        <v>45197</v>
       </c>
       <c r="IO4" s="24">
         <f t="shared" si="1"/>
-        <v>43939</v>
+        <v>45198</v>
       </c>
       <c r="IP4" s="24">
         <f t="shared" si="1"/>
-        <v>43940</v>
+        <v>45199</v>
       </c>
       <c r="IQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43941</v>
+        <v>45200</v>
       </c>
       <c r="IR4" s="24">
         <f t="shared" si="1"/>
-        <v>43942</v>
+        <v>45201</v>
       </c>
       <c r="IS4" s="24">
         <f t="shared" si="1"/>
-        <v>43943</v>
+        <v>45202</v>
       </c>
       <c r="IT4" s="24">
         <f t="shared" si="1"/>
-        <v>43944</v>
+        <v>45203</v>
       </c>
       <c r="IU4" s="24">
         <f t="shared" si="1"/>
-        <v>43945</v>
+        <v>45204</v>
       </c>
       <c r="IV4" s="24">
         <f t="shared" si="1"/>
-        <v>43946</v>
+        <v>45205</v>
       </c>
       <c r="IW4" s="24">
         <f t="shared" si="1"/>
-        <v>43947</v>
+        <v>45206</v>
       </c>
       <c r="IX4" s="24">
         <f t="shared" si="1"/>
-        <v>43948</v>
+        <v>45207</v>
       </c>
       <c r="IY4" s="24">
         <f t="shared" si="1"/>
-        <v>43949</v>
+        <v>45208</v>
       </c>
       <c r="IZ4" s="24">
         <f t="shared" si="1"/>
-        <v>43950</v>
+        <v>45209</v>
       </c>
       <c r="JA4" s="24">
         <f t="shared" si="1"/>
-        <v>43951</v>
+        <v>45210</v>
       </c>
       <c r="JB4" s="24">
         <f t="shared" si="1"/>
-        <v>43952</v>
+        <v>45211</v>
       </c>
       <c r="JC4" s="24">
         <f t="shared" si="1"/>
-        <v>43953</v>
+        <v>45212</v>
       </c>
       <c r="JD4" s="24">
         <f t="shared" si="1"/>
-        <v>43954</v>
+        <v>45213</v>
       </c>
       <c r="JE4" s="24">
         <f t="shared" si="1"/>
-        <v>43955</v>
+        <v>45214</v>
       </c>
       <c r="JF4" s="24">
         <f t="shared" si="1"/>
-        <v>43956</v>
+        <v>45215</v>
       </c>
       <c r="JG4" s="24">
         <f t="shared" si="1"/>
-        <v>43957</v>
+        <v>45216</v>
       </c>
       <c r="JH4" s="24">
         <f t="shared" si="1"/>
-        <v>43958</v>
+        <v>45217</v>
       </c>
       <c r="JI4" s="24">
         <f t="shared" si="1"/>
-        <v>43959</v>
+        <v>45218</v>
       </c>
       <c r="JJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43960</v>
+        <v>45219</v>
       </c>
       <c r="JK4" s="24">
         <f t="shared" si="1"/>
-        <v>43961</v>
+        <v>45220</v>
       </c>
       <c r="JL4" s="24">
         <f t="shared" si="1"/>
-        <v>43962</v>
+        <v>45221</v>
       </c>
       <c r="JM4" s="24">
         <f t="shared" si="1"/>
-        <v>43963</v>
+        <v>45222</v>
       </c>
       <c r="JN4" s="24">
         <f t="shared" si="1"/>
-        <v>43964</v>
+        <v>45223</v>
       </c>
       <c r="JO4" s="24">
         <f t="shared" si="1"/>
-        <v>43965</v>
+        <v>45224</v>
       </c>
       <c r="JP4" s="24">
         <f t="shared" si="1"/>
-        <v>43966</v>
+        <v>45225</v>
       </c>
       <c r="JQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43967</v>
+        <v>45226</v>
       </c>
       <c r="JR4" s="24">
         <f t="shared" si="1"/>
-        <v>43968</v>
+        <v>45227</v>
       </c>
       <c r="JS4" s="24">
         <f t="shared" si="1"/>
-        <v>43969</v>
+        <v>45228</v>
       </c>
       <c r="JT4" s="24">
         <f t="shared" si="1"/>
-        <v>43970</v>
+        <v>45229</v>
       </c>
       <c r="JU4" s="24">
         <f t="shared" si="1"/>
-        <v>43971</v>
+        <v>45230</v>
       </c>
       <c r="JV4" s="24">
         <f t="shared" si="1"/>
-        <v>43972</v>
+        <v>45231</v>
       </c>
       <c r="JW4" s="24">
         <f t="shared" si="1"/>
-        <v>43973</v>
+        <v>45232</v>
       </c>
       <c r="JX4" s="24">
         <f t="shared" si="1"/>
-        <v>43974</v>
+        <v>45233</v>
       </c>
       <c r="JY4" s="24">
         <f t="shared" si="1"/>
-        <v>43975</v>
+        <v>45234</v>
       </c>
       <c r="JZ4" s="24">
         <f t="shared" si="1"/>
-        <v>43976</v>
+        <v>45235</v>
       </c>
       <c r="KA4" s="24">
         <f t="shared" si="1"/>
-        <v>43977</v>
+        <v>45236</v>
       </c>
       <c r="KB4" s="24">
         <f t="shared" si="1"/>
-        <v>43978</v>
+        <v>45237</v>
       </c>
       <c r="KC4" s="24">
         <f t="shared" si="1"/>
-        <v>43979</v>
+        <v>45238</v>
       </c>
       <c r="KD4" s="24">
         <f t="shared" si="1"/>
-        <v>43980</v>
+        <v>45239</v>
       </c>
       <c r="KE4" s="24">
         <f t="shared" si="1"/>
-        <v>43981</v>
+        <v>45240</v>
       </c>
       <c r="KF4" s="24">
         <f t="shared" si="1"/>
-        <v>43982</v>
+        <v>45241</v>
       </c>
       <c r="KG4" s="24">
         <f t="shared" si="1"/>
-        <v>43983</v>
+        <v>45242</v>
       </c>
       <c r="KH4" s="24">
         <f t="shared" si="1"/>
-        <v>43984</v>
+        <v>45243</v>
       </c>
       <c r="KI4" s="24">
         <f t="shared" si="1"/>
-        <v>43985</v>
+        <v>45244</v>
       </c>
       <c r="KJ4" s="24">
         <f t="shared" si="1"/>
-        <v>43986</v>
+        <v>45245</v>
       </c>
       <c r="KK4" s="24">
         <f t="shared" si="1"/>
-        <v>43987</v>
+        <v>45246</v>
       </c>
       <c r="KL4" s="24">
         <f t="shared" si="1"/>
-        <v>43988</v>
+        <v>45247</v>
       </c>
       <c r="KM4" s="24">
         <f t="shared" si="1"/>
-        <v>43989</v>
+        <v>45248</v>
       </c>
       <c r="KN4" s="24">
         <f t="shared" si="1"/>
-        <v>43990</v>
+        <v>45249</v>
       </c>
       <c r="KO4" s="24">
         <f t="shared" si="1"/>
-        <v>43991</v>
+        <v>45250</v>
       </c>
       <c r="KP4" s="24">
         <f t="shared" si="1"/>
-        <v>43992</v>
+        <v>45251</v>
       </c>
       <c r="KQ4" s="24">
         <f t="shared" si="1"/>
-        <v>43993</v>
+        <v>45252</v>
       </c>
       <c r="KR4" s="24">
         <f t="shared" si="1"/>
-        <v>43994</v>
+        <v>45253</v>
       </c>
       <c r="KS4" s="24">
         <f t="shared" si="1"/>
-        <v>43995</v>
+        <v>45254</v>
       </c>
       <c r="KT4" s="24">
         <f t="shared" si="1"/>
-        <v>43996</v>
+        <v>45255</v>
       </c>
       <c r="KU4" s="24">
         <f t="shared" si="1"/>
-        <v>43997</v>
+        <v>45256</v>
       </c>
       <c r="KV4" s="24">
         <f t="shared" si="1"/>
-        <v>43998</v>
+        <v>45257</v>
       </c>
       <c r="KW4" s="24">
         <f t="shared" si="1"/>
-        <v>43999</v>
+        <v>45258</v>
       </c>
       <c r="KX4" s="24">
         <f t="shared" si="1"/>
-        <v>44000</v>
+        <v>45259</v>
       </c>
       <c r="KY4" s="24">
         <f t="shared" si="1"/>
-        <v>44001</v>
+        <v>45260</v>
       </c>
       <c r="KZ4" s="24">
         <f t="shared" si="1"/>
-        <v>44002</v>
+        <v>45261</v>
       </c>
       <c r="LA4" s="24">
         <f t="shared" si="1"/>
-        <v>44003</v>
+        <v>45262</v>
       </c>
       <c r="LB4" s="24">
         <f t="shared" si="1"/>
-        <v>44004</v>
+        <v>45263</v>
       </c>
       <c r="LC4" s="24">
         <f t="shared" si="1"/>
-        <v>44005</v>
+        <v>45264</v>
       </c>
       <c r="LD4" s="24">
         <f t="shared" si="1"/>
-        <v>44006</v>
+        <v>45265</v>
       </c>
       <c r="LE4" s="24">
         <f t="shared" si="1"/>
-        <v>44007</v>
+        <v>45266</v>
       </c>
       <c r="LF4" s="24">
         <f t="shared" si="1"/>
-        <v>44008</v>
+        <v>45267</v>
       </c>
       <c r="LG4" s="24">
         <f t="shared" si="1"/>
-        <v>44009</v>
+        <v>45268</v>
       </c>
       <c r="LH4" s="24">
         <f t="shared" si="1"/>
-        <v>44010</v>
+        <v>45269</v>
       </c>
       <c r="LI4" s="24">
         <f t="shared" si="1"/>
-        <v>44011</v>
+        <v>45270</v>
       </c>
       <c r="LJ4" s="24">
         <f t="shared" si="1"/>
-        <v>44012</v>
+        <v>45271</v>
       </c>
       <c r="LK4" s="24">
         <f t="shared" si="1"/>
-        <v>44013</v>
+        <v>45272</v>
       </c>
       <c r="LL4" s="24">
         <f t="shared" si="1"/>
-        <v>44014</v>
+        <v>45273</v>
       </c>
       <c r="LM4" s="24">
         <f t="shared" si="1"/>
-        <v>44015</v>
+        <v>45274</v>
       </c>
       <c r="LN4" s="24">
         <f t="shared" si="1"/>
-        <v>44016</v>
+        <v>45275</v>
       </c>
       <c r="LO4" s="24">
         <f t="shared" si="1"/>
-        <v>44017</v>
+        <v>45276</v>
       </c>
       <c r="LP4" s="24">
         <f t="shared" si="1"/>
-        <v>44018</v>
+        <v>45277</v>
       </c>
       <c r="LQ4" s="24">
         <f t="shared" si="1"/>
-        <v>44019</v>
+        <v>45278</v>
       </c>
       <c r="LR4" s="24">
         <f t="shared" si="1"/>
-        <v>44020</v>
+        <v>45279</v>
       </c>
       <c r="LS4" s="24">
         <f t="shared" si="1"/>
-        <v>44021</v>
+        <v>45280</v>
       </c>
       <c r="LT4" s="24">
         <f t="shared" si="1"/>
-        <v>44022</v>
+        <v>45281</v>
       </c>
       <c r="LU4" s="24">
         <f t="shared" si="1"/>
-        <v>44023</v>
+        <v>45282</v>
       </c>
       <c r="LV4" s="24">
         <f t="shared" si="1"/>
-        <v>44024</v>
+        <v>45283</v>
       </c>
       <c r="LW4" s="24">
         <f t="shared" si="1"/>
-        <v>44025</v>
+        <v>45284</v>
       </c>
       <c r="LX4" s="24">
         <f t="shared" si="1"/>
-        <v>44026</v>
+        <v>45285</v>
       </c>
       <c r="LY4" s="24">
         <f t="shared" si="1"/>
-        <v>44027</v>
+        <v>45286</v>
       </c>
       <c r="LZ4" s="24">
         <f t="shared" si="1"/>
-        <v>44028</v>
+        <v>45287</v>
       </c>
       <c r="MA4" s="24">
         <f t="shared" si="1"/>
-        <v>44029</v>
+        <v>45288</v>
       </c>
       <c r="MB4" s="24">
         <f t="shared" si="1"/>
-        <v>44030</v>
+        <v>45289</v>
       </c>
       <c r="MC4" s="24">
         <f t="shared" si="1"/>
-        <v>44031</v>
+        <v>45290</v>
       </c>
       <c r="MD4" s="24">
         <f t="shared" si="1"/>
-        <v>44032</v>
+        <v>45291</v>
       </c>
       <c r="ME4" s="24">
         <f t="shared" si="1"/>
-        <v>44033</v>
+        <v>45292</v>
       </c>
       <c r="MF4" s="24">
         <f t="shared" si="1"/>
-        <v>44034</v>
+        <v>45293</v>
       </c>
       <c r="MG4" s="24">
         <f t="shared" si="1"/>
-        <v>44035</v>
+        <v>45294</v>
       </c>
       <c r="MH4" s="24">
         <f t="shared" si="1"/>
-        <v>44036</v>
+        <v>45295</v>
       </c>
       <c r="MI4" s="24">
         <f t="shared" si="1"/>
-        <v>44037</v>
+        <v>45296</v>
       </c>
       <c r="MJ4" s="24">
         <f t="shared" si="1"/>
-        <v>44038</v>
+        <v>45297</v>
       </c>
       <c r="MK4" s="24">
         <f t="shared" si="1"/>
-        <v>44039</v>
+        <v>45298</v>
       </c>
       <c r="ML4" s="24">
         <f t="shared" si="1"/>
-        <v>44040</v>
+        <v>45299</v>
       </c>
       <c r="MM4" s="24">
         <f t="shared" si="1"/>
-        <v>44041</v>
+        <v>45300</v>
       </c>
       <c r="MN4" s="24">
         <f t="shared" si="1"/>
-        <v>44042</v>
+        <v>45301</v>
       </c>
       <c r="MO4" s="24">
         <f t="shared" si="1"/>
-        <v>44043</v>
+        <v>45302</v>
       </c>
       <c r="MP4" s="24">
         <f t="shared" si="1"/>
-        <v>44044</v>
+        <v>45303</v>
       </c>
       <c r="MQ4" s="24">
         <f t="shared" si="1"/>
-        <v>44045</v>
+        <v>45304</v>
       </c>
       <c r="MR4" s="24">
         <f t="shared" si="1"/>
-        <v>44046</v>
+        <v>45305</v>
       </c>
       <c r="MS4" s="24">
         <f t="shared" si="1"/>
-        <v>44047</v>
+        <v>45306</v>
       </c>
       <c r="MT4" s="24">
         <f t="shared" si="1"/>
-        <v>44048</v>
+        <v>45307</v>
       </c>
       <c r="MU4" s="24">
         <f t="shared" si="1"/>
-        <v>44049</v>
+        <v>45308</v>
       </c>
       <c r="MV4" s="24">
         <f t="shared" si="1"/>
-        <v>44050</v>
+        <v>45309</v>
       </c>
       <c r="MW4" s="24">
         <f t="shared" si="1"/>
-        <v>44051</v>
+        <v>45310</v>
       </c>
       <c r="MX4" s="24">
         <f t="shared" si="1"/>
-        <v>44052</v>
+        <v>45311</v>
       </c>
       <c r="MY4" s="24">
         <f t="shared" si="1"/>
-        <v>44053</v>
+        <v>45312</v>
       </c>
       <c r="MZ4" s="24">
         <f t="shared" si="1"/>
-        <v>44054</v>
+        <v>45313</v>
       </c>
       <c r="NA4" s="24">
         <f t="shared" si="1"/>
-        <v>44055</v>
+        <v>45314</v>
       </c>
       <c r="NB4" s="24">
         <f t="shared" si="1"/>
-        <v>44056</v>
+        <v>45315</v>
       </c>
       <c r="NC4" s="24">
         <f t="shared" si="1"/>
-        <v>44057</v>
+        <v>45316</v>
       </c>
       <c r="ND4" s="24">
         <f t="shared" si="1"/>
-        <v>44058</v>
+        <v>45317</v>
       </c>
       <c r="NE4" s="24">
         <f t="shared" si="1"/>
-        <v>44059</v>
+        <v>45318</v>
       </c>
       <c r="NF4" s="24">
         <f t="shared" si="1"/>
-        <v>44060</v>
+        <v>45319</v>
       </c>
       <c r="NG4" s="24">
         <f t="shared" si="1"/>
-        <v>44061</v>
+        <v>45320</v>
       </c>
       <c r="NH4" s="24">
         <f t="shared" si="1"/>
-        <v>44062</v>
+        <v>45321</v>
       </c>
       <c r="NI4" s="24">
         <f t="shared" si="1"/>
-        <v>44063</v>
+        <v>45322</v>
       </c>
       <c r="NJ4" s="24">
         <f t="shared" si="1"/>
-        <v>44064</v>
+        <v>45323</v>
       </c>
       <c r="NK4" s="24">
         <f t="shared" si="1"/>
-        <v>44065</v>
+        <v>45324</v>
       </c>
       <c r="NL4" s="24">
         <f t="shared" si="1"/>
-        <v>44066</v>
+        <v>45325</v>
       </c>
       <c r="NM4" s="24">
         <f t="shared" si="1"/>
-        <v>44067</v>
+        <v>45326</v>
       </c>
       <c r="NN4" s="24">
         <f t="shared" si="1"/>
-        <v>44068</v>
+        <v>45327</v>
       </c>
       <c r="NO4" s="24">
         <f t="shared" si="1"/>
-        <v>44069</v>
+        <v>45328</v>
       </c>
       <c r="NP4" s="24">
         <f t="shared" si="1"/>
-        <v>44070</v>
+        <v>45329</v>
       </c>
       <c r="NQ4" s="24">
         <f t="shared" si="1"/>
-        <v>44071</v>
+        <v>45330</v>
       </c>
       <c r="NR4" s="24">
         <f t="shared" si="1"/>
-        <v>44072</v>
+        <v>45331</v>
       </c>
       <c r="NS4" s="24">
         <f t="shared" si="1"/>
-        <v>44073</v>
+        <v>45332</v>
       </c>
       <c r="NT4" s="24">
         <f t="shared" si="1"/>
-        <v>44074</v>
+        <v>45333</v>
       </c>
       <c r="NU4" s="24">
         <f t="shared" si="1"/>
-        <v>44075</v>
+        <v>45334</v>
       </c>
       <c r="NV4" s="24">
         <f t="shared" si="1"/>
-        <v>44076</v>
+        <v>45335</v>
       </c>
       <c r="NW4" s="24">
         <f t="shared" si="1"/>
-        <v>44077</v>
+        <v>45336</v>
       </c>
       <c r="NX4" s="24">
         <f t="shared" si="1"/>
-        <v>44078</v>
+        <v>45337</v>
       </c>
       <c r="NY4" s="24">
         <f t="shared" si="1"/>
-        <v>44079</v>
+        <v>45338</v>
       </c>
       <c r="NZ4" s="24">
         <f t="shared" si="1"/>
-        <v>44080</v>
+        <v>45339</v>
       </c>
       <c r="OA4" s="24">
         <f t="shared" si="1"/>
-        <v>44081</v>
+        <v>45340</v>
       </c>
       <c r="OB4" s="24">
         <f t="shared" si="1"/>
-        <v>44082</v>
+        <v>45341</v>
       </c>
       <c r="OC4" s="24">
         <f t="shared" si="1"/>
-        <v>44083</v>
+        <v>45342</v>
       </c>
       <c r="OD4" s="24">
         <f t="shared" si="1"/>
-        <v>44084</v>
+        <v>45343</v>
       </c>
       <c r="OE4" s="24">
         <f t="shared" si="1"/>
-        <v>44085</v>
+        <v>45344</v>
       </c>
       <c r="OF4" s="24">
         <f t="shared" si="1"/>
-        <v>44086</v>
+        <v>45345</v>
       </c>
       <c r="OG4" s="24">
         <f t="shared" si="1"/>
-        <v>44087</v>
+        <v>45346</v>
       </c>
       <c r="OH4" s="24">
         <f t="shared" si="1"/>
-        <v>44088</v>
+        <v>45347</v>
       </c>
       <c r="OI4" s="24">
         <f t="shared" si="1"/>
-        <v>44089</v>
+        <v>45348</v>
       </c>
       <c r="OJ4" s="24">
         <f t="shared" si="1"/>
-        <v>44090</v>
+        <v>45349</v>
       </c>
       <c r="OK4" s="24">
         <f t="shared" si="1"/>
-        <v>44091</v>
+        <v>45350</v>
       </c>
       <c r="OL4" s="24">
         <f t="shared" si="1"/>
-        <v>44092</v>
+        <v>45351</v>
       </c>
       <c r="OM4" s="24">
         <f t="shared" si="1"/>
-        <v>44093</v>
+        <v>45352</v>
       </c>
       <c r="ON4" s="24">
         <f t="shared" si="1"/>
-        <v>44094</v>
+        <v>45353</v>
       </c>
       <c r="OO4" s="24">
         <f t="shared" si="1"/>
-        <v>44095</v>
+        <v>45354</v>
       </c>
       <c r="OP4" s="24">
         <f t="shared" si="1"/>
-        <v>44096</v>
+        <v>45355</v>
       </c>
       <c r="OQ4" s="24">
         <f t="shared" si="1"/>
-        <v>44097</v>
+        <v>45356</v>
       </c>
       <c r="OR4" s="24">
         <f t="shared" si="1"/>
-        <v>44098</v>
+        <v>45357</v>
       </c>
       <c r="OS4" s="24">
         <f t="shared" si="1"/>
-        <v>44099</v>
+        <v>45358</v>
       </c>
       <c r="OT4" s="24">
         <f t="shared" si="1"/>
-        <v>44100</v>
+        <v>45359</v>
       </c>
       <c r="OU4" s="24">
         <f t="shared" si="1"/>
-        <v>44101</v>
+        <v>45360</v>
       </c>
       <c r="OV4" s="24">
         <f t="shared" si="1"/>
-        <v>44102</v>
+        <v>45361</v>
       </c>
     </row>
     <row r="5" spans="1:412" ht="12.75" x14ac:dyDescent="0.2">
@@ -5290,7 +5281,7 @@
       </c>
       <c r="H5" s="27" t="str">
         <f>VLOOKUP(H3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="I5" s="27" t="str">
         <f>VLOOKUP(I3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5298,7 +5289,7 @@
       </c>
       <c r="J5" s="27" t="str">
         <f>VLOOKUP(J3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="K5" s="27" t="str">
         <f>VLOOKUP(K3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5306,19 +5297,19 @@
       </c>
       <c r="L5" s="27" t="str">
         <f>VLOOKUP(L3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="M5" s="27" t="str">
         <f>VLOOKUP(M3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="N5" s="27" t="str">
         <f>VLOOKUP(N3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="O5" s="27" t="str">
         <f>VLOOKUP(O3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="P5" s="27" t="str">
         <f>VLOOKUP(P3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5326,7 +5317,7 @@
       </c>
       <c r="Q5" s="27" t="str">
         <f>VLOOKUP(Q3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="R5" s="27" t="str">
         <f>VLOOKUP(R3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5334,19 +5325,19 @@
       </c>
       <c r="S5" s="27" t="str">
         <f>VLOOKUP(S3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="T5" s="27" t="str">
         <f>VLOOKUP(T3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="U5" s="27" t="str">
         <f>VLOOKUP(U3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="V5" s="27" t="str">
         <f>VLOOKUP(V3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="W5" s="27" t="str">
         <f>VLOOKUP(W3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5354,7 +5345,7 @@
       </c>
       <c r="X5" s="27" t="str">
         <f>VLOOKUP(X3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="Y5" s="27" t="str">
         <f>VLOOKUP(Y3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5362,19 +5353,19 @@
       </c>
       <c r="Z5" s="27" t="str">
         <f>VLOOKUP(Z3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AA5" s="27" t="str">
         <f>VLOOKUP(AA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AB5" s="27" t="str">
         <f>VLOOKUP(AB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AC5" s="27" t="str">
         <f>VLOOKUP(AC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="AD5" s="27" t="str">
         <f>VLOOKUP(AD3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5382,7 +5373,7 @@
       </c>
       <c r="AE5" s="27" t="str">
         <f>VLOOKUP(AE3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="AF5" s="27" t="str">
         <f>VLOOKUP(AF3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5390,19 +5381,19 @@
       </c>
       <c r="AG5" s="27" t="str">
         <f>VLOOKUP(AG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AH5" s="27" t="str">
         <f>VLOOKUP(AH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AI5" s="27" t="str">
         <f>VLOOKUP(AI3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AJ5" s="27" t="str">
         <f>VLOOKUP(AJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="AK5" s="27" t="str">
         <f>VLOOKUP(AK3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5410,7 +5401,7 @@
       </c>
       <c r="AL5" s="27" t="str">
         <f>VLOOKUP(AL3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="AM5" s="27" t="str">
         <f>VLOOKUP(AM3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5418,19 +5409,19 @@
       </c>
       <c r="AN5" s="27" t="str">
         <f>VLOOKUP(AN3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AO5" s="27" t="str">
         <f>VLOOKUP(AO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AP5" s="27" t="str">
         <f>VLOOKUP(AP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AQ5" s="27" t="str">
         <f>VLOOKUP(AQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="AR5" s="27" t="str">
         <f>VLOOKUP(AR3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5438,7 +5429,7 @@
       </c>
       <c r="AS5" s="27" t="str">
         <f>VLOOKUP(AS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="AT5" s="27" t="str">
         <f>VLOOKUP(AT3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5446,19 +5437,19 @@
       </c>
       <c r="AU5" s="27" t="str">
         <f>VLOOKUP(AU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AV5" s="27" t="str">
         <f>VLOOKUP(AV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AW5" s="27" t="str">
         <f>VLOOKUP(AW3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AX5" s="27" t="str">
         <f>VLOOKUP(AX3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="AY5" s="27" t="str">
         <f>VLOOKUP(AY3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5466,7 +5457,7 @@
       </c>
       <c r="AZ5" s="27" t="str">
         <f>VLOOKUP(AZ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="BA5" s="27" t="str">
         <f>VLOOKUP(BA3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5474,19 +5465,19 @@
       </c>
       <c r="BB5" s="27" t="str">
         <f>VLOOKUP(BB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BC5" s="27" t="str">
         <f>VLOOKUP(BC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BD5" s="27" t="str">
         <f>VLOOKUP(BD3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BE5" s="27" t="str">
         <f>VLOOKUP(BE3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="BF5" s="27" t="str">
         <f>VLOOKUP(BF3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5494,7 +5485,7 @@
       </c>
       <c r="BG5" s="27" t="str">
         <f>VLOOKUP(BG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="BH5" s="27" t="str">
         <f>VLOOKUP(BH3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5502,19 +5493,19 @@
       </c>
       <c r="BI5" s="27" t="str">
         <f>VLOOKUP(BI3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BJ5" s="27" t="str">
         <f>VLOOKUP(BJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BK5" s="27" t="str">
         <f>VLOOKUP(BK3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BL5" s="27" t="str">
         <f>VLOOKUP(BL3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="BM5" s="27" t="str">
         <f>VLOOKUP(BM3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5522,7 +5513,7 @@
       </c>
       <c r="BN5" s="27" t="str">
         <f>VLOOKUP(BN3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="BO5" s="27" t="str">
         <f>VLOOKUP(BO3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5530,19 +5521,19 @@
       </c>
       <c r="BP5" s="27" t="str">
         <f>VLOOKUP(BP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BQ5" s="27" t="str">
         <f>VLOOKUP(BQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BR5" s="27" t="str">
         <f>VLOOKUP(BR3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BS5" s="27" t="str">
         <f>VLOOKUP(BS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="BT5" s="27" t="str">
         <f>VLOOKUP(BT3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5550,7 +5541,7 @@
       </c>
       <c r="BU5" s="27" t="str">
         <f>VLOOKUP(BU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="BV5" s="27" t="str">
         <f>VLOOKUP(BV3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5558,19 +5549,19 @@
       </c>
       <c r="BW5" s="27" t="str">
         <f>VLOOKUP(BW3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BX5" s="27" t="str">
         <f>VLOOKUP(BX3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BY5" s="27" t="str">
         <f>VLOOKUP(BY3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BZ5" s="27" t="str">
         <f>VLOOKUP(BZ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="CA5" s="27" t="str">
         <f>VLOOKUP(CA3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5578,7 +5569,7 @@
       </c>
       <c r="CB5" s="27" t="str">
         <f>VLOOKUP(CB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="CC5" s="27" t="str">
         <f>VLOOKUP(CC3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5586,19 +5577,19 @@
       </c>
       <c r="CD5" s="27" t="str">
         <f>VLOOKUP(CD3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="CE5" s="27" t="str">
         <f>VLOOKUP(CE3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="CF5" s="27" t="str">
         <f>VLOOKUP(CF3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="CG5" s="27" t="str">
         <f>VLOOKUP(CG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="CH5" s="27" t="str">
         <f>VLOOKUP(CH3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5606,7 +5597,7 @@
       </c>
       <c r="CI5" s="27" t="str">
         <f>VLOOKUP(CI3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="CJ5" s="27" t="str">
         <f>VLOOKUP(CJ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5614,19 +5605,19 @@
       </c>
       <c r="CK5" s="27" t="str">
         <f>VLOOKUP(CK3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="CL5" s="27" t="str">
         <f>VLOOKUP(CL3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="CM5" s="27" t="str">
         <f>VLOOKUP(CM3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="CN5" s="27" t="str">
         <f>VLOOKUP(CN3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="CO5" s="27" t="str">
         <f>VLOOKUP(CO3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5634,7 +5625,7 @@
       </c>
       <c r="CP5" s="27" t="str">
         <f>VLOOKUP(CP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="CQ5" s="27" t="str">
         <f>VLOOKUP(CQ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5642,19 +5633,19 @@
       </c>
       <c r="CR5" s="27" t="str">
         <f>VLOOKUP(CR3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="CS5" s="27" t="str">
         <f>VLOOKUP(CS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="CT5" s="27" t="str">
         <f>VLOOKUP(CT3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="CU5" s="27" t="str">
         <f>VLOOKUP(CU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="CV5" s="27" t="str">
         <f>VLOOKUP(CV3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5662,7 +5653,7 @@
       </c>
       <c r="CW5" s="27" t="str">
         <f>VLOOKUP(CW3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="CX5" s="27" t="str">
         <f>VLOOKUP(CX3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5670,19 +5661,19 @@
       </c>
       <c r="CY5" s="27" t="str">
         <f>VLOOKUP(CY3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="CZ5" s="27" t="str">
         <f>VLOOKUP(CZ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="DA5" s="27" t="str">
         <f>VLOOKUP(DA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="DB5" s="27" t="str">
         <f>VLOOKUP(DB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="DC5" s="27" t="str">
         <f>VLOOKUP(DC3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5690,7 +5681,7 @@
       </c>
       <c r="DD5" s="27" t="str">
         <f>VLOOKUP(DD3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="DE5" s="27" t="str">
         <f>VLOOKUP(DE3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5698,19 +5689,19 @@
       </c>
       <c r="DF5" s="27" t="str">
         <f>VLOOKUP(DF3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="DG5" s="27" t="str">
         <f>VLOOKUP(DG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="DH5" s="27" t="str">
         <f>VLOOKUP(DH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="DI5" s="27" t="str">
         <f>VLOOKUP(DI3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="DJ5" s="27" t="str">
         <f>VLOOKUP(DJ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5718,7 +5709,7 @@
       </c>
       <c r="DK5" s="27" t="str">
         <f>VLOOKUP(DK3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="DL5" s="27" t="str">
         <f>VLOOKUP(DL3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5726,19 +5717,19 @@
       </c>
       <c r="DM5" s="27" t="str">
         <f>VLOOKUP(DM3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="DN5" s="27" t="str">
         <f>VLOOKUP(DN3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="DO5" s="27" t="str">
         <f>VLOOKUP(DO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="DP5" s="27" t="str">
         <f>VLOOKUP(DP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="DQ5" s="27" t="str">
         <f>VLOOKUP(DQ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5746,7 +5737,7 @@
       </c>
       <c r="DR5" s="27" t="str">
         <f>VLOOKUP(DR3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="DS5" s="27" t="str">
         <f>VLOOKUP(DS3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5754,19 +5745,19 @@
       </c>
       <c r="DT5" s="27" t="str">
         <f>VLOOKUP(DT3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="DU5" s="27" t="str">
         <f>VLOOKUP(DU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="DV5" s="27" t="str">
         <f>VLOOKUP(DV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="DW5" s="27" t="str">
         <f>VLOOKUP(DW3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="DX5" s="27" t="str">
         <f>VLOOKUP(DX3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5774,7 +5765,7 @@
       </c>
       <c r="DY5" s="27" t="str">
         <f>VLOOKUP(DY3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="DZ5" s="27" t="str">
         <f>VLOOKUP(DZ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5782,19 +5773,19 @@
       </c>
       <c r="EA5" s="27" t="str">
         <f>VLOOKUP(EA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="EB5" s="27" t="str">
         <f>VLOOKUP(EB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="EC5" s="27" t="str">
         <f>VLOOKUP(EC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="ED5" s="27" t="str">
         <f>VLOOKUP(ED3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="EE5" s="27" t="str">
         <f>VLOOKUP(EE3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5802,7 +5793,7 @@
       </c>
       <c r="EF5" s="27" t="str">
         <f>VLOOKUP(EF3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="EG5" s="27" t="str">
         <f>VLOOKUP(EG3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5810,19 +5801,19 @@
       </c>
       <c r="EH5" s="27" t="str">
         <f>VLOOKUP(EH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="EI5" s="27" t="str">
         <f>VLOOKUP(EI3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="EJ5" s="27" t="str">
         <f>VLOOKUP(EJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="EK5" s="27" t="str">
         <f>VLOOKUP(EK3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="EL5" s="27" t="str">
         <f>VLOOKUP(EL3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5830,7 +5821,7 @@
       </c>
       <c r="EM5" s="27" t="str">
         <f>VLOOKUP(EM3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="EN5" s="27" t="str">
         <f>VLOOKUP(EN3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5838,19 +5829,19 @@
       </c>
       <c r="EO5" s="27" t="str">
         <f>VLOOKUP(EO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="EP5" s="27" t="str">
         <f>VLOOKUP(EP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="EQ5" s="27" t="str">
         <f>VLOOKUP(EQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="ER5" s="27" t="str">
         <f>VLOOKUP(ER3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="ES5" s="27" t="str">
         <f>VLOOKUP(ES3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5858,7 +5849,7 @@
       </c>
       <c r="ET5" s="27" t="str">
         <f>VLOOKUP(ET3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="EU5" s="27" t="str">
         <f>VLOOKUP(EU3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5866,19 +5857,19 @@
       </c>
       <c r="EV5" s="27" t="str">
         <f>VLOOKUP(EV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="EW5" s="27" t="str">
         <f>VLOOKUP(EW3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="EX5" s="27" t="str">
         <f>VLOOKUP(EX3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="EY5" s="27" t="str">
         <f>VLOOKUP(EY3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="EZ5" s="27" t="str">
         <f>VLOOKUP(EZ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5886,7 +5877,7 @@
       </c>
       <c r="FA5" s="27" t="str">
         <f>VLOOKUP(FA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="FB5" s="27" t="str">
         <f>VLOOKUP(FB3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5894,19 +5885,19 @@
       </c>
       <c r="FC5" s="27" t="str">
         <f>VLOOKUP(FC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="FD5" s="27" t="str">
         <f>VLOOKUP(FD3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="FE5" s="27" t="str">
         <f>VLOOKUP(FE3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="FF5" s="27" t="str">
         <f>VLOOKUP(FF3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="FG5" s="27" t="str">
         <f>VLOOKUP(FG3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5914,7 +5905,7 @@
       </c>
       <c r="FH5" s="27" t="str">
         <f>VLOOKUP(FH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="FI5" s="27" t="str">
         <f>VLOOKUP(FI3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5922,19 +5913,19 @@
       </c>
       <c r="FJ5" s="27" t="str">
         <f>VLOOKUP(FJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="FK5" s="27" t="str">
         <f>VLOOKUP(FK3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="FL5" s="27" t="str">
         <f>VLOOKUP(FL3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="FM5" s="27" t="str">
         <f>VLOOKUP(FM3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="FN5" s="27" t="str">
         <f>VLOOKUP(FN3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5942,7 +5933,7 @@
       </c>
       <c r="FO5" s="27" t="str">
         <f>VLOOKUP(FO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="FP5" s="27" t="str">
         <f>VLOOKUP(FP3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5950,19 +5941,19 @@
       </c>
       <c r="FQ5" s="27" t="str">
         <f>VLOOKUP(FQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="FR5" s="27" t="str">
         <f>VLOOKUP(FR3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="FS5" s="27" t="str">
         <f>VLOOKUP(FS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="FT5" s="27" t="str">
         <f>VLOOKUP(FT3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="FU5" s="27" t="str">
         <f>VLOOKUP(FU3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5970,7 +5961,7 @@
       </c>
       <c r="FV5" s="27" t="str">
         <f>VLOOKUP(FV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="FW5" s="27" t="str">
         <f>VLOOKUP(FW3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5978,19 +5969,19 @@
       </c>
       <c r="FX5" s="27" t="str">
         <f>VLOOKUP(FX3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="FY5" s="27" t="str">
         <f>VLOOKUP(FY3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="FZ5" s="27" t="str">
         <f>VLOOKUP(FZ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="GA5" s="27" t="str">
         <f>VLOOKUP(GA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="GB5" s="27" t="str">
         <f>VLOOKUP(GB3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -5998,7 +5989,7 @@
       </c>
       <c r="GC5" s="27" t="str">
         <f>VLOOKUP(GC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="GD5" s="27" t="str">
         <f>VLOOKUP(GD3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6006,19 +5997,19 @@
       </c>
       <c r="GE5" s="27" t="str">
         <f>VLOOKUP(GE3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="GF5" s="27" t="str">
         <f>VLOOKUP(GF3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="GG5" s="27" t="str">
         <f>VLOOKUP(GG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="GH5" s="27" t="str">
         <f>VLOOKUP(GH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="GI5" s="27" t="str">
         <f>VLOOKUP(GI3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6026,7 +6017,7 @@
       </c>
       <c r="GJ5" s="27" t="str">
         <f>VLOOKUP(GJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="GK5" s="27" t="str">
         <f>VLOOKUP(GK3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6034,19 +6025,19 @@
       </c>
       <c r="GL5" s="27" t="str">
         <f>VLOOKUP(GL3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="GM5" s="27" t="str">
         <f>VLOOKUP(GM3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="GN5" s="27" t="str">
         <f>VLOOKUP(GN3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="GO5" s="27" t="str">
         <f>VLOOKUP(GO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="GP5" s="27" t="str">
         <f>VLOOKUP(GP3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6054,7 +6045,7 @@
       </c>
       <c r="GQ5" s="27" t="str">
         <f>VLOOKUP(GQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="GR5" s="27" t="str">
         <f>VLOOKUP(GR3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6062,19 +6053,19 @@
       </c>
       <c r="GS5" s="27" t="str">
         <f>VLOOKUP(GS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="GT5" s="27" t="str">
         <f>VLOOKUP(GT3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="GU5" s="27" t="str">
         <f>VLOOKUP(GU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="GV5" s="27" t="str">
         <f>VLOOKUP(GV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="GW5" s="27" t="str">
         <f>VLOOKUP(GW3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6082,7 +6073,7 @@
       </c>
       <c r="GX5" s="27" t="str">
         <f>VLOOKUP(GX3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="GY5" s="27" t="str">
         <f>VLOOKUP(GY3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6090,19 +6081,19 @@
       </c>
       <c r="GZ5" s="27" t="str">
         <f>VLOOKUP(GZ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="HA5" s="27" t="str">
         <f>VLOOKUP(HA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="HB5" s="27" t="str">
         <f>VLOOKUP(HB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="HC5" s="27" t="str">
         <f>VLOOKUP(HC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="HD5" s="27" t="str">
         <f>VLOOKUP(HD3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6110,7 +6101,7 @@
       </c>
       <c r="HE5" s="27" t="str">
         <f>VLOOKUP(HE3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="HF5" s="27" t="str">
         <f>VLOOKUP(HF3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6118,19 +6109,19 @@
       </c>
       <c r="HG5" s="27" t="str">
         <f>VLOOKUP(HG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="HH5" s="27" t="str">
         <f>VLOOKUP(HH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="HI5" s="27" t="str">
         <f>VLOOKUP(HI3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="HJ5" s="27" t="str">
         <f>VLOOKUP(HJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="HK5" s="27" t="str">
         <f>VLOOKUP(HK3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6138,7 +6129,7 @@
       </c>
       <c r="HL5" s="27" t="str">
         <f>VLOOKUP(HL3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="HM5" s="27" t="str">
         <f>VLOOKUP(HM3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6146,19 +6137,19 @@
       </c>
       <c r="HN5" s="27" t="str">
         <f>VLOOKUP(HN3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="HO5" s="27" t="str">
         <f>VLOOKUP(HO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="HP5" s="27" t="str">
         <f>VLOOKUP(HP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="HQ5" s="27" t="str">
         <f>VLOOKUP(HQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="HR5" s="27" t="str">
         <f>VLOOKUP(HR3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6166,7 +6157,7 @@
       </c>
       <c r="HS5" s="27" t="str">
         <f>VLOOKUP(HS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="HT5" s="27" t="str">
         <f>VLOOKUP(HT3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6174,19 +6165,19 @@
       </c>
       <c r="HU5" s="27" t="str">
         <f>VLOOKUP(HU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="HV5" s="27" t="str">
         <f>VLOOKUP(HV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="HW5" s="27" t="str">
         <f>VLOOKUP(HW3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="HX5" s="27" t="str">
         <f>VLOOKUP(HX3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="HY5" s="27" t="str">
         <f>VLOOKUP(HY3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6194,7 +6185,7 @@
       </c>
       <c r="HZ5" s="27" t="str">
         <f>VLOOKUP(HZ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="IA5" s="27" t="str">
         <f>VLOOKUP(IA3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6202,19 +6193,19 @@
       </c>
       <c r="IB5" s="27" t="str">
         <f>VLOOKUP(IB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="IC5" s="27" t="str">
         <f>VLOOKUP(IC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="ID5" s="27" t="str">
         <f>VLOOKUP(ID3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="IE5" s="27" t="str">
         <f>VLOOKUP(IE3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="IF5" s="27" t="str">
         <f>VLOOKUP(IF3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6222,7 +6213,7 @@
       </c>
       <c r="IG5" s="27" t="str">
         <f>VLOOKUP(IG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="IH5" s="27" t="str">
         <f>VLOOKUP(IH3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6230,19 +6221,19 @@
       </c>
       <c r="II5" s="27" t="str">
         <f>VLOOKUP(II3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="IJ5" s="27" t="str">
         <f>VLOOKUP(IJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="IK5" s="27" t="str">
         <f>VLOOKUP(IK3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="IL5" s="27" t="str">
         <f>VLOOKUP(IL3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="IM5" s="27" t="str">
         <f>VLOOKUP(IM3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6250,7 +6241,7 @@
       </c>
       <c r="IN5" s="27" t="str">
         <f>VLOOKUP(IN3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="IO5" s="27" t="str">
         <f>VLOOKUP(IO3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6258,19 +6249,19 @@
       </c>
       <c r="IP5" s="27" t="str">
         <f>VLOOKUP(IP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="IQ5" s="27" t="str">
         <f>VLOOKUP(IQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="IR5" s="27" t="str">
         <f>VLOOKUP(IR3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="IS5" s="27" t="str">
         <f>VLOOKUP(IS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="IT5" s="27" t="str">
         <f>VLOOKUP(IT3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6278,7 +6269,7 @@
       </c>
       <c r="IU5" s="27" t="str">
         <f>VLOOKUP(IU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="IV5" s="27" t="str">
         <f>VLOOKUP(IV3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6286,19 +6277,19 @@
       </c>
       <c r="IW5" s="27" t="str">
         <f>VLOOKUP(IW3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="IX5" s="27" t="str">
         <f>VLOOKUP(IX3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="IY5" s="27" t="str">
         <f>VLOOKUP(IY3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="IZ5" s="27" t="str">
         <f>VLOOKUP(IZ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="JA5" s="27" t="str">
         <f>VLOOKUP(JA3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6306,7 +6297,7 @@
       </c>
       <c r="JB5" s="27" t="str">
         <f>VLOOKUP(JB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="JC5" s="27" t="str">
         <f>VLOOKUP(JC3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6314,19 +6305,19 @@
       </c>
       <c r="JD5" s="27" t="str">
         <f>VLOOKUP(JD3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="JE5" s="27" t="str">
         <f>VLOOKUP(JE3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="JF5" s="27" t="str">
         <f>VLOOKUP(JF3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="JG5" s="27" t="str">
         <f>VLOOKUP(JG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="JH5" s="27" t="str">
         <f>VLOOKUP(JH3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6334,7 +6325,7 @@
       </c>
       <c r="JI5" s="27" t="str">
         <f>VLOOKUP(JI3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="JJ5" s="27" t="str">
         <f>VLOOKUP(JJ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6342,19 +6333,19 @@
       </c>
       <c r="JK5" s="27" t="str">
         <f>VLOOKUP(JK3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="JL5" s="27" t="str">
         <f>VLOOKUP(JL3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="JM5" s="27" t="str">
         <f>VLOOKUP(JM3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="JN5" s="27" t="str">
         <f>VLOOKUP(JN3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="JO5" s="27" t="str">
         <f>VLOOKUP(JO3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6362,7 +6353,7 @@
       </c>
       <c r="JP5" s="27" t="str">
         <f>VLOOKUP(JP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="JQ5" s="27" t="str">
         <f>VLOOKUP(JQ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6370,19 +6361,19 @@
       </c>
       <c r="JR5" s="27" t="str">
         <f>VLOOKUP(JR3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="JS5" s="27" t="str">
         <f>VLOOKUP(JS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="JT5" s="27" t="str">
         <f>VLOOKUP(JT3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="JU5" s="27" t="str">
         <f>VLOOKUP(JU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="JV5" s="27" t="str">
         <f>VLOOKUP(JV3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6390,7 +6381,7 @@
       </c>
       <c r="JW5" s="27" t="str">
         <f>VLOOKUP(JW3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="JX5" s="27" t="str">
         <f>VLOOKUP(JX3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6398,19 +6389,19 @@
       </c>
       <c r="JY5" s="27" t="str">
         <f>VLOOKUP(JY3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="JZ5" s="27" t="str">
         <f>VLOOKUP(JZ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="KA5" s="27" t="str">
         <f>VLOOKUP(KA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="KB5" s="27" t="str">
         <f>VLOOKUP(KB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="KC5" s="27" t="str">
         <f>VLOOKUP(KC3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6418,7 +6409,7 @@
       </c>
       <c r="KD5" s="27" t="str">
         <f>VLOOKUP(KD3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="KE5" s="27" t="str">
         <f>VLOOKUP(KE3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6426,19 +6417,19 @@
       </c>
       <c r="KF5" s="27" t="str">
         <f>VLOOKUP(KF3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="KG5" s="27" t="str">
         <f>VLOOKUP(KG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="KH5" s="27" t="str">
         <f>VLOOKUP(KH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="KI5" s="27" t="str">
         <f>VLOOKUP(KI3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="KJ5" s="27" t="str">
         <f>VLOOKUP(KJ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6446,7 +6437,7 @@
       </c>
       <c r="KK5" s="27" t="str">
         <f>VLOOKUP(KK3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="KL5" s="27" t="str">
         <f>VLOOKUP(KL3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6454,19 +6445,19 @@
       </c>
       <c r="KM5" s="27" t="str">
         <f>VLOOKUP(KM3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="KN5" s="27" t="str">
         <f>VLOOKUP(KN3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="KO5" s="27" t="str">
         <f>VLOOKUP(KO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="KP5" s="27" t="str">
         <f>VLOOKUP(KP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="KQ5" s="27" t="str">
         <f>VLOOKUP(KQ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6474,7 +6465,7 @@
       </c>
       <c r="KR5" s="27" t="str">
         <f>VLOOKUP(KR3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="KS5" s="27" t="str">
         <f>VLOOKUP(KS3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6482,19 +6473,19 @@
       </c>
       <c r="KT5" s="27" t="str">
         <f>VLOOKUP(KT3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="KU5" s="27" t="str">
         <f>VLOOKUP(KU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="KV5" s="27" t="str">
         <f>VLOOKUP(KV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="KW5" s="27" t="str">
         <f>VLOOKUP(KW3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="KX5" s="27" t="str">
         <f>VLOOKUP(KX3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6502,7 +6493,7 @@
       </c>
       <c r="KY5" s="27" t="str">
         <f>VLOOKUP(KY3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="KZ5" s="27" t="str">
         <f>VLOOKUP(KZ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6510,19 +6501,19 @@
       </c>
       <c r="LA5" s="27" t="str">
         <f>VLOOKUP(LA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="LB5" s="27" t="str">
         <f>VLOOKUP(LB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="LC5" s="27" t="str">
         <f>VLOOKUP(LC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="LD5" s="27" t="str">
         <f>VLOOKUP(LD3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="LE5" s="27" t="str">
         <f>VLOOKUP(LE3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6530,7 +6521,7 @@
       </c>
       <c r="LF5" s="27" t="str">
         <f>VLOOKUP(LF3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="LG5" s="27" t="str">
         <f>VLOOKUP(LG3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6538,19 +6529,19 @@
       </c>
       <c r="LH5" s="27" t="str">
         <f>VLOOKUP(LH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="LI5" s="27" t="str">
         <f>VLOOKUP(LI3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="LJ5" s="27" t="str">
         <f>VLOOKUP(LJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="LK5" s="27" t="str">
         <f>VLOOKUP(LK3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="LL5" s="27" t="str">
         <f>VLOOKUP(LL3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6558,7 +6549,7 @@
       </c>
       <c r="LM5" s="27" t="str">
         <f>VLOOKUP(LM3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="LN5" s="27" t="str">
         <f>VLOOKUP(LN3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6566,19 +6557,19 @@
       </c>
       <c r="LO5" s="27" t="str">
         <f>VLOOKUP(LO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="LP5" s="27" t="str">
         <f>VLOOKUP(LP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="LQ5" s="27" t="str">
         <f>VLOOKUP(LQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="LR5" s="27" t="str">
         <f>VLOOKUP(LR3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="LS5" s="27" t="str">
         <f>VLOOKUP(LS3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6586,7 +6577,7 @@
       </c>
       <c r="LT5" s="27" t="str">
         <f>VLOOKUP(LT3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="LU5" s="27" t="str">
         <f>VLOOKUP(LU3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6594,19 +6585,19 @@
       </c>
       <c r="LV5" s="27" t="str">
         <f>VLOOKUP(LV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="LW5" s="27" t="str">
         <f>VLOOKUP(LW3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="LX5" s="27" t="str">
         <f>VLOOKUP(LX3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="LY5" s="27" t="str">
         <f>VLOOKUP(LY3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="LZ5" s="27" t="str">
         <f>VLOOKUP(LZ3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6614,7 +6605,7 @@
       </c>
       <c r="MA5" s="27" t="str">
         <f>VLOOKUP(MA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="MB5" s="27" t="str">
         <f>VLOOKUP(MB3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6622,19 +6613,19 @@
       </c>
       <c r="MC5" s="27" t="str">
         <f>VLOOKUP(MC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="MD5" s="27" t="str">
         <f>VLOOKUP(MD3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="ME5" s="27" t="str">
         <f>VLOOKUP(ME3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="MF5" s="27" t="str">
         <f>VLOOKUP(MF3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="MG5" s="27" t="str">
         <f>VLOOKUP(MG3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6642,7 +6633,7 @@
       </c>
       <c r="MH5" s="27" t="str">
         <f>VLOOKUP(MH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="MI5" s="27" t="str">
         <f>VLOOKUP(MI3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6650,19 +6641,19 @@
       </c>
       <c r="MJ5" s="27" t="str">
         <f>VLOOKUP(MJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="MK5" s="27" t="str">
         <f>VLOOKUP(MK3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="ML5" s="27" t="str">
         <f>VLOOKUP(ML3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="MM5" s="27" t="str">
         <f>VLOOKUP(MM3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="MN5" s="27" t="str">
         <f>VLOOKUP(MN3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6670,7 +6661,7 @@
       </c>
       <c r="MO5" s="27" t="str">
         <f>VLOOKUP(MO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="MP5" s="27" t="str">
         <f>VLOOKUP(MP3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6678,19 +6669,19 @@
       </c>
       <c r="MQ5" s="27" t="str">
         <f>VLOOKUP(MQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="MR5" s="27" t="str">
         <f>VLOOKUP(MR3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="MS5" s="27" t="str">
         <f>VLOOKUP(MS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="MT5" s="27" t="str">
         <f>VLOOKUP(MT3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="MU5" s="27" t="str">
         <f>VLOOKUP(MU3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6698,7 +6689,7 @@
       </c>
       <c r="MV5" s="27" t="str">
         <f>VLOOKUP(MV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="MW5" s="27" t="str">
         <f>VLOOKUP(MW3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6706,19 +6697,19 @@
       </c>
       <c r="MX5" s="27" t="str">
         <f>VLOOKUP(MX3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="MY5" s="27" t="str">
         <f>VLOOKUP(MY3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="MZ5" s="27" t="str">
         <f>VLOOKUP(MZ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="NA5" s="27" t="str">
         <f>VLOOKUP(NA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="NB5" s="27" t="str">
         <f>VLOOKUP(NB3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6726,7 +6717,7 @@
       </c>
       <c r="NC5" s="27" t="str">
         <f>VLOOKUP(NC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="ND5" s="27" t="str">
         <f>VLOOKUP(ND3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6734,19 +6725,19 @@
       </c>
       <c r="NE5" s="27" t="str">
         <f>VLOOKUP(NE3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="NF5" s="27" t="str">
         <f>VLOOKUP(NF3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="NG5" s="27" t="str">
         <f>VLOOKUP(NG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="NH5" s="27" t="str">
         <f>VLOOKUP(NH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="NI5" s="27" t="str">
         <f>VLOOKUP(NI3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6754,7 +6745,7 @@
       </c>
       <c r="NJ5" s="27" t="str">
         <f>VLOOKUP(NJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="NK5" s="27" t="str">
         <f>VLOOKUP(NK3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6762,19 +6753,19 @@
       </c>
       <c r="NL5" s="27" t="str">
         <f>VLOOKUP(NL3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="NM5" s="27" t="str">
         <f>VLOOKUP(NM3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="NN5" s="27" t="str">
         <f>VLOOKUP(NN3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="NO5" s="27" t="str">
         <f>VLOOKUP(NO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="NP5" s="27" t="str">
         <f>VLOOKUP(NP3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6782,7 +6773,7 @@
       </c>
       <c r="NQ5" s="27" t="str">
         <f>VLOOKUP(NQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="NR5" s="27" t="str">
         <f>VLOOKUP(NR3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6790,19 +6781,19 @@
       </c>
       <c r="NS5" s="27" t="str">
         <f>VLOOKUP(NS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="NT5" s="27" t="str">
         <f>VLOOKUP(NT3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="NU5" s="27" t="str">
         <f>VLOOKUP(NU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="NV5" s="27" t="str">
         <f>VLOOKUP(NV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="NW5" s="27" t="str">
         <f>VLOOKUP(NW3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6810,7 +6801,7 @@
       </c>
       <c r="NX5" s="27" t="str">
         <f>VLOOKUP(NX3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="NY5" s="27" t="str">
         <f>VLOOKUP(NY3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6818,19 +6809,19 @@
       </c>
       <c r="NZ5" s="27" t="str">
         <f>VLOOKUP(NZ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="OA5" s="27" t="str">
         <f>VLOOKUP(OA3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="OB5" s="27" t="str">
         <f>VLOOKUP(OB3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="OC5" s="27" t="str">
         <f>VLOOKUP(OC3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="OD5" s="27" t="str">
         <f>VLOOKUP(OD3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6838,7 +6829,7 @@
       </c>
       <c r="OE5" s="27" t="str">
         <f>VLOOKUP(OE3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="OF5" s="27" t="str">
         <f>VLOOKUP(OF3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6846,19 +6837,19 @@
       </c>
       <c r="OG5" s="27" t="str">
         <f>VLOOKUP(OG3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="OH5" s="27" t="str">
         <f>VLOOKUP(OH3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="OI5" s="27" t="str">
         <f>VLOOKUP(OI3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="OJ5" s="27" t="str">
         <f>VLOOKUP(OJ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="OK5" s="27" t="str">
         <f>VLOOKUP(OK3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6866,7 +6857,7 @@
       </c>
       <c r="OL5" s="27" t="str">
         <f>VLOOKUP(OL3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="OM5" s="27" t="str">
         <f>VLOOKUP(OM3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6874,19 +6865,19 @@
       </c>
       <c r="ON5" s="27" t="str">
         <f>VLOOKUP(ON3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="OO5" s="27" t="str">
         <f>VLOOKUP(OO3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="OP5" s="27" t="str">
         <f>VLOOKUP(OP3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="OQ5" s="27" t="str">
         <f>VLOOKUP(OQ3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="OR5" s="27" t="str">
         <f>VLOOKUP(OR3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6894,7 +6885,7 @@
       </c>
       <c r="OS5" s="27" t="str">
         <f>VLOOKUP(OS3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="OT5" s="27" t="str">
         <f>VLOOKUP(OT3,Auxiliar!$A$2:$B$8,2,0)</f>
@@ -6902,11 +6893,11 @@
       </c>
       <c r="OU5" s="27" t="str">
         <f>VLOOKUP(OU3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="OV5" s="27" t="str">
         <f>VLOOKUP(OV3,Auxiliar!$A$2:$B$8,2,0)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
     </row>
     <row r="6" spans="1:412" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -7324,7 +7315,7 @@
       </c>
       <c r="B7" s="29">
         <f>MIN(B8:B10)</f>
-        <v>43699</v>
+        <v>44958</v>
       </c>
       <c r="C7" s="28">
         <f>NETWORKDAYS(B7,E7)</f>
@@ -7336,7 +7327,7 @@
       </c>
       <c r="E7" s="29">
         <f>MAX(E8:E10)</f>
-        <v>43726</v>
+        <v>44985</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>15</v>
@@ -7752,7 +7743,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="30">
-        <v>43699</v>
+        <v>44958</v>
       </c>
       <c r="C8" s="32">
         <v>10</v>
@@ -7763,7 +7754,7 @@
       </c>
       <c r="E8" s="19">
         <f>WORKDAY(B8-1,C8)</f>
-        <v>43712</v>
+        <v>44971</v>
       </c>
       <c r="F8" s="21">
         <v>0</v>
@@ -8184,7 +8175,7 @@
       </c>
       <c r="B9" s="19">
         <f>E8+1</f>
-        <v>43713</v>
+        <v>44972</v>
       </c>
       <c r="C9" s="32">
         <v>5</v>
@@ -8195,7 +8186,7 @@
       </c>
       <c r="E9" s="19">
         <f>WORKDAY(B9-1,C9)</f>
-        <v>43719</v>
+        <v>44978</v>
       </c>
       <c r="F9" s="21">
         <v>0</v>
@@ -8616,7 +8607,7 @@
       </c>
       <c r="B10" s="19">
         <f>E9+1</f>
-        <v>43720</v>
+        <v>44979</v>
       </c>
       <c r="C10" s="32">
         <v>5</v>
@@ -8627,7 +8618,7 @@
       </c>
       <c r="E10" s="19">
         <f>WORKDAY(B10-1,C10)</f>
-        <v>43726</v>
+        <v>44985</v>
       </c>
       <c r="F10" s="21">
         <v>0</v>
@@ -9048,7 +9039,7 @@
       </c>
       <c r="B11" s="29">
         <f>MIN(B12:B18)</f>
-        <v>43727</v>
+        <v>44986</v>
       </c>
       <c r="C11" s="28">
         <f>NETWORKDAYS(B11,E11)</f>
@@ -9060,7 +9051,7 @@
       </c>
       <c r="E11" s="29">
         <f>MAX(E12:E18)</f>
-        <v>43748</v>
+        <v>45007</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>15</v>
@@ -9477,7 +9468,7 @@
       </c>
       <c r="B12" s="19">
         <f>E10+1</f>
-        <v>43727</v>
+        <v>44986</v>
       </c>
       <c r="C12" s="33">
         <v>4</v>
@@ -9488,7 +9479,7 @@
       </c>
       <c r="E12" s="19">
         <f t="shared" ref="E12:E18" si="4">WORKDAY(B12-1,C12)</f>
-        <v>43732</v>
+        <v>44991</v>
       </c>
       <c r="F12" s="35">
         <v>0</v>
@@ -9909,7 +9900,7 @@
       </c>
       <c r="B13" s="19">
         <f>E12+1</f>
-        <v>43733</v>
+        <v>44992</v>
       </c>
       <c r="C13" s="33">
         <v>2</v>
@@ -9920,7 +9911,7 @@
       </c>
       <c r="E13" s="19">
         <f t="shared" si="4"/>
-        <v>43734</v>
+        <v>44993</v>
       </c>
       <c r="F13" s="35">
         <v>0</v>
@@ -10341,18 +10332,18 @@
       </c>
       <c r="B14" s="19">
         <f t="shared" ref="B14:B18" si="7">E13+1</f>
-        <v>43735</v>
+        <v>44994</v>
       </c>
       <c r="C14" s="33">
         <v>2</v>
       </c>
       <c r="D14" s="21">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="4"/>
-        <v>43738</v>
+        <v>44995</v>
       </c>
       <c r="F14" s="35">
         <v>0</v>
@@ -10773,18 +10764,18 @@
       </c>
       <c r="B15" s="19">
         <f t="shared" si="7"/>
-        <v>43739</v>
+        <v>44996</v>
       </c>
       <c r="C15" s="33">
         <v>2</v>
       </c>
       <c r="D15" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="4"/>
-        <v>43740</v>
+        <v>44999</v>
       </c>
       <c r="F15" s="35">
         <v>0</v>
@@ -11205,7 +11196,7 @@
       </c>
       <c r="B16" s="19">
         <f t="shared" si="7"/>
-        <v>43741</v>
+        <v>45000</v>
       </c>
       <c r="C16" s="33">
         <v>2</v>
@@ -11216,7 +11207,7 @@
       </c>
       <c r="E16" s="19">
         <f t="shared" si="4"/>
-        <v>43742</v>
+        <v>45001</v>
       </c>
       <c r="F16" s="35">
         <v>0</v>
@@ -11637,7 +11628,7 @@
       </c>
       <c r="B17" s="19">
         <f t="shared" si="7"/>
-        <v>43743</v>
+        <v>45002</v>
       </c>
       <c r="C17" s="33">
         <v>2</v>
@@ -11648,14 +11639,14 @@
       </c>
       <c r="E17" s="19">
         <f t="shared" si="4"/>
-        <v>43746</v>
+        <v>45005</v>
       </c>
       <c r="F17" s="35">
         <v>0</v>
       </c>
       <c r="G17" s="21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -12069,7 +12060,7 @@
       </c>
       <c r="B18" s="19">
         <f t="shared" si="7"/>
-        <v>43747</v>
+        <v>45006</v>
       </c>
       <c r="C18" s="33">
         <v>2</v>
@@ -12080,14 +12071,14 @@
       </c>
       <c r="E18" s="19">
         <f t="shared" si="4"/>
-        <v>43748</v>
+        <v>45007</v>
       </c>
       <c r="F18" s="35">
         <v>0</v>
       </c>
       <c r="G18" s="21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -12501,7 +12492,7 @@
       </c>
       <c r="B19" s="29">
         <f>MIN(B20:B28)</f>
-        <v>43749</v>
+        <v>45008</v>
       </c>
       <c r="C19" s="28">
         <f>NETWORKDAYS(B19,E19)</f>
@@ -12513,7 +12504,7 @@
       </c>
       <c r="E19" s="29">
         <f>MAX(E20:E28)</f>
-        <v>43783</v>
+        <v>45042</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>15</v>
@@ -12930,25 +12921,25 @@
       </c>
       <c r="B20" s="19">
         <f>E18+1</f>
-        <v>43749</v>
+        <v>45008</v>
       </c>
       <c r="C20" s="33">
         <v>2</v>
       </c>
       <c r="D20" s="21">
         <f>E20-B20+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="19">
         <f>WORKDAY(B20-1,C20)</f>
-        <v>43752</v>
+        <v>45009</v>
       </c>
       <c r="F20" s="35">
         <v>0</v>
       </c>
       <c r="G20" s="21" t="str">
         <f ca="1">IF(TODAY()&lt;B20,"Futura",IF(F20=100,"Concluída",IF((TODAY()-B20)/(E20-B20)&lt;F20/100,"Em andamento","Atenção")))</f>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -13362,25 +13353,25 @@
       </c>
       <c r="B21" s="19">
         <f>E20+1</f>
-        <v>43753</v>
+        <v>45010</v>
       </c>
       <c r="C21" s="33">
         <v>2</v>
       </c>
       <c r="D21" s="21">
         <f t="shared" ref="D21:D25" si="8">E21-B21+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" ref="E21:E25" si="9">WORKDAY(B21-1,C21)</f>
-        <v>43754</v>
+        <v>45013</v>
       </c>
       <c r="F21" s="35">
         <v>0</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" ref="G21:G27" ca="1" si="10">IF(TODAY()&lt;B21,"Futura",IF(F21=100,"Concluída",IF((TODAY()-B21)/(E21-B21)&lt;F21/100,"Em andamento","Atenção")))</f>
-        <v>Atenção</v>
+        <f t="shared" ref="G21:G24" ca="1" si="10">IF(TODAY()&lt;B21,"Futura",IF(F21=100,"Concluída",IF((TODAY()-B21)/(E21-B21)&lt;F21/100,"Em andamento","Atenção")))</f>
+        <v>Futura</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -13794,7 +13785,7 @@
       </c>
       <c r="B22" s="19">
         <f t="shared" ref="B22:B25" si="11">E21+1</f>
-        <v>43755</v>
+        <v>45014</v>
       </c>
       <c r="C22" s="33">
         <v>4</v>
@@ -13805,14 +13796,14 @@
       </c>
       <c r="E22" s="19">
         <f t="shared" si="9"/>
-        <v>43760</v>
+        <v>45019</v>
       </c>
       <c r="F22" s="35">
         <v>0</v>
       </c>
       <c r="G22" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -14226,7 +14217,7 @@
       </c>
       <c r="B23" s="19">
         <f t="shared" si="11"/>
-        <v>43761</v>
+        <v>45020</v>
       </c>
       <c r="C23" s="33">
         <v>2</v>
@@ -14237,14 +14228,14 @@
       </c>
       <c r="E23" s="19">
         <f t="shared" si="9"/>
-        <v>43762</v>
+        <v>45021</v>
       </c>
       <c r="F23" s="35">
         <v>0</v>
       </c>
       <c r="G23" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -14658,25 +14649,25 @@
       </c>
       <c r="B24" s="19">
         <f t="shared" si="11"/>
-        <v>43763</v>
+        <v>45022</v>
       </c>
       <c r="C24" s="33">
         <v>2</v>
       </c>
       <c r="D24" s="21">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="9"/>
-        <v>43766</v>
+        <v>45023</v>
       </c>
       <c r="F24" s="35">
         <v>0</v>
       </c>
       <c r="G24" s="21" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -15090,25 +15081,25 @@
       </c>
       <c r="B25" s="19">
         <f t="shared" si="11"/>
-        <v>43767</v>
+        <v>45024</v>
       </c>
       <c r="C25" s="33">
         <v>4</v>
       </c>
       <c r="D25" s="21">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="9"/>
-        <v>43770</v>
+        <v>45029</v>
       </c>
       <c r="F25" s="35">
         <v>0</v>
       </c>
       <c r="G25" s="21" t="str">
         <f ca="1">IF(TODAY()&lt;B25,"Futura",IF(F25=100,"Concluída",IF((TODAY()-B25)/(E25-B25)&lt;F25/100,"Em andamento","Atenção")))</f>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -15522,7 +15513,7 @@
       </c>
       <c r="B26" s="19">
         <f t="shared" ref="B26:B28" si="12">E25+1</f>
-        <v>43771</v>
+        <v>45030</v>
       </c>
       <c r="C26" s="33">
         <v>5</v>
@@ -15533,14 +15524,14 @@
       </c>
       <c r="E26" s="19">
         <f t="shared" ref="E26:E28" si="14">WORKDAY(B26-1,C26)</f>
-        <v>43777</v>
+        <v>45036</v>
       </c>
       <c r="F26" s="35">
         <v>0</v>
       </c>
       <c r="G26" s="21" t="str">
         <f ca="1">IF(TODAY()&lt;B26,"Futura",IF(F26=100,"Concluída",IF((TODAY()-B26)/(E26-B26)&lt;F26/100,"Em andamento","Atenção")))</f>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -15954,7 +15945,7 @@
       </c>
       <c r="B27" s="19">
         <f t="shared" si="12"/>
-        <v>43778</v>
+        <v>45037</v>
       </c>
       <c r="C27" s="33">
         <v>2</v>
@@ -15965,14 +15956,14 @@
       </c>
       <c r="E27" s="19">
         <f t="shared" si="14"/>
-        <v>43781</v>
+        <v>45040</v>
       </c>
       <c r="F27" s="35">
         <v>0</v>
       </c>
       <c r="G27" s="21" t="str">
         <f ca="1">IF(TODAY()&lt;B27,"Futura",IF(F27=100,"Concluída",IF((TODAY()-B27)/(E27-B27)&lt;F27/100,"Em andamento","Atenção")))</f>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -16386,7 +16377,7 @@
       </c>
       <c r="B28" s="19">
         <f t="shared" si="12"/>
-        <v>43782</v>
+        <v>45041</v>
       </c>
       <c r="C28" s="33">
         <v>2</v>
@@ -16397,14 +16388,14 @@
       </c>
       <c r="E28" s="19">
         <f t="shared" si="14"/>
-        <v>43783</v>
+        <v>45042</v>
       </c>
       <c r="F28" s="35">
         <v>0</v>
       </c>
       <c r="G28" s="21" t="str">
-        <f t="shared" ref="G26:G28" ca="1" si="15">IF(TODAY()&lt;B28,"Futura",IF(F28=100,"Concluída",IF((TODAY()-B28)/(E28-B28)&lt;F28/100,"Em andamento","Atenção")))</f>
-        <v>Atenção</v>
+        <f t="shared" ref="G28" ca="1" si="15">IF(TODAY()&lt;B28,"Futura",IF(F28=100,"Concluída",IF((TODAY()-B28)/(E28-B28)&lt;F28/100,"Em andamento","Atenção")))</f>
+        <v>Futura</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -16818,19 +16809,19 @@
       </c>
       <c r="B29" s="29">
         <f>MIN(B30:B32)</f>
-        <v>43777</v>
+        <v>45043</v>
       </c>
       <c r="C29" s="28">
         <f>NETWORKDAYS(B29,E29)</f>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D29" s="28">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E29" s="29">
         <f>MAX(E30:E32)</f>
-        <v>43797</v>
+        <v>45085</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>15</v>
@@ -17247,24 +17238,24 @@
       </c>
       <c r="B30" s="19">
         <f>E28+1</f>
-        <v>43784</v>
+        <v>45043</v>
       </c>
       <c r="C30" s="33">
         <v>3</v>
       </c>
       <c r="D30" s="21">
         <f>E30-B30+1</f>
-        <v>-7</v>
+        <v>41</v>
       </c>
       <c r="E30" s="37">
-        <v>43776</v>
+        <v>45083</v>
       </c>
       <c r="F30" s="35">
         <v>0</v>
       </c>
       <c r="G30" s="21" t="str">
         <f t="shared" ref="G30:G32" ca="1" si="16">IF(TODAY()&lt;B30,"Futura",IF(F30=100,"Concluída",IF((TODAY()-B30)/(E30-B30)&lt;F30/100,"Em andamento","Atenção")))</f>
-        <v>Em andamento</v>
+        <v>Futura</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -17678,24 +17669,24 @@
       </c>
       <c r="B31" s="19">
         <f>E30+1</f>
-        <v>43777</v>
+        <v>45084</v>
       </c>
       <c r="C31" s="33">
         <v>10</v>
       </c>
       <c r="D31" s="21">
         <f t="shared" ref="D31:D32" si="17">E31-B31+1</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E31" s="37">
-        <v>43790</v>
+        <v>45084</v>
       </c>
       <c r="F31" s="35">
         <v>0</v>
       </c>
       <c r="G31" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -18109,24 +18100,24 @@
       </c>
       <c r="B32" s="19">
         <f t="shared" ref="B32" si="18">E31+1</f>
-        <v>43791</v>
+        <v>45085</v>
       </c>
       <c r="C32" s="33">
         <v>5</v>
       </c>
       <c r="D32" s="21">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E32" s="37">
-        <v>43797</v>
+        <v>45085</v>
       </c>
       <c r="F32" s="35">
         <v>0</v>
       </c>
       <c r="G32" s="21" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Atenção</v>
+        <v>Futura</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -18540,19 +18531,19 @@
       </c>
       <c r="B33" s="29">
         <f>MIN(B34:B34)</f>
-        <v>43699</v>
+        <v>44958</v>
       </c>
       <c r="C33" s="28">
         <f>NETWORKDAYS(B33,E33)</f>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D33" s="28">
         <f>E33-B33+1</f>
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E33" s="29">
         <f>MAX(E34:E34)</f>
-        <v>43797</v>
+        <v>45085</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>15</v>
@@ -18968,19 +18959,19 @@
       </c>
       <c r="B34" s="19">
         <f>MIN(B7:B32)</f>
-        <v>43699</v>
+        <v>44958</v>
       </c>
       <c r="C34" s="33">
         <f>C33</f>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D34" s="21">
         <f>E34-B34+1</f>
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E34" s="19">
         <f>MAX(E6:E32)</f>
-        <v>43797</v>
+        <v>45085</v>
       </c>
       <c r="F34" s="35">
         <v>30</v>
